--- a/Phase_distribution_40.xlsx
+++ b/Phase_distribution_40.xlsx
@@ -443,7 +443,7 @@
         <v>-499.7119242599692</v>
       </c>
       <c r="B2" t="n">
-        <v>-13.60029567218874</v>
+        <v>-428.4607040917211</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>-458.1009101823437</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.801027374849639</v>
+        <v>-419.661435794382</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>-421.8392927796875</v>
       </c>
       <c r="B4" t="n">
-        <v>2.629699837101896</v>
+        <v>-412.2307085824305</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>-390.2889522579121</v>
       </c>
       <c r="B5" t="n">
-        <v>8.909761519715687</v>
+        <v>-405.9506468998168</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>-362.3261116808533</v>
       </c>
       <c r="B6" t="n">
-        <v>14.33007412343028</v>
+        <v>-400.5303342961023</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>-335.9472047934686</v>
       </c>
       <c r="B7" t="n">
-        <v>19.31802995598991</v>
+        <v>-395.5423784635425</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>-310.6771958883161</v>
       </c>
       <c r="B8" t="n">
-        <v>23.98325440963015</v>
+        <v>-390.8771540099024</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>-285.7740792485704</v>
       </c>
       <c r="B9" t="n">
-        <v>28.47388672761713</v>
+        <v>-386.3865216919153</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>-265.9512188245525</v>
       </c>
       <c r="B10" t="n">
-        <v>31.97443822869445</v>
+        <v>-382.8859701908381</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>-244.004491921517</v>
       </c>
       <c r="B11" t="n">
-        <v>35.77481708808972</v>
+        <v>-379.0855913314427</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>-222.9344242611567</v>
       </c>
       <c r="B12" t="n">
-        <v>39.35066787877099</v>
+        <v>-375.5097405407614</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>-202.8819912883241</v>
       </c>
       <c r="B13" t="n">
-        <v>42.68931789220773</v>
+        <v>-372.1710905273248</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>-183.632904596432</v>
       </c>
       <c r="B14" t="n">
-        <v>45.83659071963132</v>
+        <v>-369.0238176999011</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>-165.1489703572489</v>
       </c>
       <c r="B15" t="n">
-        <v>48.80701151571134</v>
+        <v>-366.0533969038211</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>-146.7062845801932</v>
       </c>
       <c r="B16" t="n">
-        <v>51.72162803568921</v>
+        <v>-363.1387803838433</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>-128.8969907279931</v>
       </c>
       <c r="B17" t="n">
-        <v>54.49077717325724</v>
+        <v>-360.3696312462753</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>-111.5551514641538</v>
       </c>
       <c r="B18" t="n">
-        <v>57.14558163667584</v>
+        <v>-357.7148267828566</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>-94.5734546233419</v>
       </c>
       <c r="B19" t="n">
-        <v>59.7065103386347</v>
+        <v>-355.1538980808979</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>-77.82959133229369</v>
       </c>
       <c r="B20" t="n">
-        <v>62.19507497738385</v>
+        <v>-352.6653334421486</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-61.47742571210112</v>
       </c>
       <c r="B21" t="n">
-        <v>64.59141237931584</v>
+        <v>-350.2689960402165</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>-45.49097793531629</v>
       </c>
       <c r="B22" t="n">
-        <v>66.90256848038234</v>
+        <v>-347.9578399391501</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>-29.77620409864016</v>
       </c>
       <c r="B23" t="n">
-        <v>69.14485236030828</v>
+        <v>-345.7155560592241</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>-14.29627116107998</v>
       </c>
       <c r="B24" t="n">
-        <v>71.32573390236485</v>
+        <v>-343.5346745171674</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.9007032536027474</v>
       </c>
       <c r="B25" t="n">
-        <v>73.44056648345821</v>
+        <v>-341.4198419360742</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>15.8799143666991</v>
       </c>
       <c r="B26" t="n">
-        <v>75.50040902363321</v>
+        <v>-339.3599993958993</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>30.60172928785144</v>
       </c>
       <c r="B27" t="n">
-        <v>77.50163541628558</v>
+        <v>-337.3587730032468</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>45.12762666644323</v>
       </c>
       <c r="B28" t="n">
-        <v>79.45428917579824</v>
+        <v>-335.4061192437341</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>59.40852869507432</v>
       </c>
       <c r="B29" t="n">
-        <v>81.35334794937194</v>
+        <v>-333.5070604701605</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>73.50529633454707</v>
       </c>
       <c r="B30" t="n">
-        <v>83.20838018006168</v>
+        <v>-331.6520282394708</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>87.40274326375336</v>
       </c>
       <c r="B31" t="n">
-        <v>85.01869855181127</v>
+        <v>-329.8417098677212</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>101.1421840424675</v>
       </c>
       <c r="B32" t="n">
-        <v>86.79088541546986</v>
+        <v>-328.0695230040627</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>114.6968830519173</v>
       </c>
       <c r="B33" t="n">
-        <v>88.52260960954146</v>
+        <v>-326.337798809991</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>128.0652977189379</v>
       </c>
       <c r="B34" t="n">
-        <v>90.21479112954228</v>
+        <v>-324.6456172899901</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>141.3053125018249</v>
       </c>
       <c r="B35" t="n">
-        <v>91.87572612825556</v>
+        <v>-322.9846822912768</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>154.3578121570541</v>
       </c>
       <c r="B36" t="n">
-        <v>93.49892542415921</v>
+        <v>-321.3614829953731</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>167.2769509061365</v>
       </c>
       <c r="B37" t="n">
-        <v>95.0920172059283</v>
+        <v>-319.7683912136042</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>180.0310425655112</v>
       </c>
       <c r="B38" t="n">
-        <v>96.65191237690061</v>
+        <v>-318.2084960426319</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>192.6601795795672</v>
       </c>
       <c r="B39" t="n">
-        <v>98.18428461319974</v>
+        <v>-316.6761238063327</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>205.171764094212</v>
       </c>
       <c r="B40" t="n">
-        <v>99.69070129911643</v>
+        <v>-315.169707120416</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>217.5516088864716</v>
       </c>
       <c r="B41" t="n">
-        <v>101.1701040505952</v>
+        <v>-313.6903043689372</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>229.8429726747232</v>
       </c>
       <c r="B42" t="n">
-        <v>102.6282471769342</v>
+        <v>-312.2321612425983</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>241.9568457411128</v>
       </c>
       <c r="B43" t="n">
-        <v>104.0551889626743</v>
+        <v>-310.8052194568583</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>253.9883649836065</v>
       </c>
       <c r="B44" t="n">
-        <v>105.4627198426227</v>
+        <v>-309.3976885769099</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>265.8957542679138</v>
       </c>
       <c r="B45" t="n">
-        <v>106.8464478630805</v>
+        <v>-308.0139605564519</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>277.7128860878222</v>
       </c>
       <c r="B46" t="n">
-        <v>108.2107938329704</v>
+        <v>-306.6496145865622</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>289.4316452739509</v>
       </c>
       <c r="B47" t="n">
-        <v>109.5552567352658</v>
+        <v>-305.3051516842667</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>301.0436059740065</v>
       </c>
       <c r="B48" t="n">
-        <v>110.8793059361107</v>
+        <v>-303.9811024834216</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>312.5534634352319</v>
       </c>
       <c r="B49" t="n">
-        <v>112.1838987312926</v>
+        <v>-302.6765096882399</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>323.9823221267088</v>
       </c>
       <c r="B50" t="n">
-        <v>113.4718062425534</v>
+        <v>-301.3886021769789</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>335.3191412935187</v>
       </c>
       <c r="B51" t="n">
-        <v>114.7421383870147</v>
+        <v>-300.1182700325177</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>346.5701004018472</v>
       </c>
       <c r="B52" t="n">
-        <v>115.9959322445093</v>
+        <v>-298.864476175023</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>357.7425435219521</v>
       </c>
       <c r="B53" t="n">
-        <v>117.2343250408327</v>
+        <v>-297.6260833786996</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>368.8250780523266</v>
       </c>
       <c r="B54" t="n">
-        <v>118.4563636350031</v>
+        <v>-296.4040447845293</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>379.838948964936</v>
       </c>
       <c r="B55" t="n">
-        <v>119.6646800971393</v>
+        <v>-295.1957283223932</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>390.7813515496823</v>
       </c>
       <c r="B56" t="n">
-        <v>120.859229693954</v>
+        <v>-294.0011787255784</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>401.6537058436721</v>
       </c>
       <c r="B57" t="n">
-        <v>122.0404215817091</v>
+        <v>-292.8199868378234</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>412.4536568622314</v>
       </c>
       <c r="B58" t="n">
-        <v>123.2082451126306</v>
+        <v>-291.6521633069019</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>423.1772972883688</v>
       </c>
       <c r="B59" t="n">
-        <v>124.3625182940563</v>
+        <v>-290.4978901254761</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>433.8442731687699</v>
       </c>
       <c r="B60" t="n">
-        <v>125.5055758068786</v>
+        <v>-289.3548326126537</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>444.4357255837898</v>
       </c>
       <c r="B61" t="n">
-        <v>126.635607778085</v>
+        <v>-288.2248006414472</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>454.9860651829037</v>
       </c>
       <c r="B62" t="n">
-        <v>127.7564784968233</v>
+        <v>-287.1039299227091</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>465.4639787664745</v>
       </c>
       <c r="B63" t="n">
-        <v>128.8650446332971</v>
+        <v>-285.9953637862352</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>475.8798326049938</v>
       </c>
       <c r="B64" t="n">
-        <v>129.9625934078885</v>
+        <v>-284.8978150116437</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>486.2465408132824</v>
       </c>
       <c r="B65" t="n">
-        <v>131.0506544336312</v>
+        <v>-283.8097539859012</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>496.5574700074093</v>
       </c>
       <c r="B66" t="n">
-        <v>132.1286903026902</v>
+        <v>-282.7317181168423</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>506.8126619117808</v>
       </c>
       <c r="B67" t="n">
-        <v>133.1968625013913</v>
+        <v>-281.663545918141</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>517.0168596518968</v>
       </c>
       <c r="B68" t="n">
-        <v>134.2558137806509</v>
+        <v>-280.6045946388815</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>527.1763951452032</v>
       </c>
       <c r="B69" t="n">
-        <v>135.3063385276853</v>
+        <v>-279.5540698918472</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_40.xlsx
+++ b/Phase_distribution_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,546 +440,2706 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-499.7119242599692</v>
+        <v>-519.251761712903</v>
       </c>
       <c r="B2" t="n">
-        <v>-428.4607040917211</v>
+        <v>-81.29791856869878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-458.1009101823437</v>
+        <v>-509.2825640767585</v>
       </c>
       <c r="B3" t="n">
-        <v>-419.661435794382</v>
+        <v>-79.13314539967155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-421.8392927796875</v>
+        <v>-499.7855914047989</v>
       </c>
       <c r="B4" t="n">
-        <v>-412.2307085824305</v>
+        <v>-77.0854156616071</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-390.2889522579121</v>
+        <v>-490.7065741590544</v>
       </c>
       <c r="B5" t="n">
-        <v>-405.9506468998168</v>
+        <v>-75.14125227393896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-362.3261116808533</v>
+        <v>-481.9999401030306</v>
       </c>
       <c r="B6" t="n">
-        <v>-400.5303342961023</v>
+        <v>-73.28935621420828</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-335.9472047934686</v>
+        <v>-473.6270012674839</v>
       </c>
       <c r="B7" t="n">
-        <v>-395.5423784635425</v>
+        <v>-71.52015209010113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-310.6771958883161</v>
+        <v>-465.5547864504031</v>
       </c>
       <c r="B8" t="n">
-        <v>-390.8771540099024</v>
+        <v>-69.82548770062897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-285.7740792485704</v>
+        <v>-457.7548974997628</v>
       </c>
       <c r="B9" t="n">
-        <v>-386.3865216919153</v>
+        <v>-68.19835088130861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-265.9512188245525</v>
+        <v>-450.2027239007749</v>
       </c>
       <c r="B10" t="n">
-        <v>-382.8859701908381</v>
+        <v>-66.63267164473291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-244.004491921517</v>
+        <v>-442.8766881725148</v>
       </c>
       <c r="B11" t="n">
-        <v>-379.0855913314427</v>
+        <v>-65.12313838484602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-222.9344242611567</v>
+        <v>-435.7580180928852</v>
       </c>
       <c r="B12" t="n">
-        <v>-375.5097405407614</v>
+        <v>-63.66512863537514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-202.8819912883241</v>
+        <v>-428.8300908772916</v>
       </c>
       <c r="B13" t="n">
-        <v>-372.1710905273248</v>
+        <v>-62.25455565325467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-183.632904596432</v>
+        <v>-422.078229568073</v>
       </c>
       <c r="B14" t="n">
-        <v>-369.0238176999011</v>
+        <v>-60.88781184709796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-165.1489703572489</v>
+        <v>-415.4893394637278</v>
       </c>
       <c r="B15" t="n">
-        <v>-366.0533969038211</v>
+        <v>-59.56168219740653</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-146.7062845801932</v>
+        <v>-409.0517677017088</v>
       </c>
       <c r="B16" t="n">
-        <v>-363.1387803838433</v>
+        <v>-58.27330526680419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-128.8969907279931</v>
+        <v>-402.7550009525161</v>
       </c>
       <c r="B17" t="n">
-        <v>-360.3696312462753</v>
+        <v>-57.02010347471179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-111.5551514641538</v>
+        <v>-396.5896102632382</v>
       </c>
       <c r="B18" t="n">
-        <v>-357.7148267828566</v>
+        <v>-55.79976452674177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-94.5734546233419</v>
+        <v>-390.547144952848</v>
       </c>
       <c r="B19" t="n">
-        <v>-355.1538980808979</v>
+        <v>-54.61021350009833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-77.82959133229369</v>
+        <v>-384.6198511354832</v>
       </c>
       <c r="B20" t="n">
-        <v>-352.6653334421486</v>
+        <v>-53.44955162724068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-61.47742571210112</v>
+        <v>-378.8007957144011</v>
       </c>
       <c r="B21" t="n">
-        <v>-350.2689960402165</v>
+        <v>-52.31607582523336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-45.49097793531629</v>
+        <v>-373.0835623254457</v>
       </c>
       <c r="B22" t="n">
-        <v>-347.9578399391501</v>
+        <v>-51.20821491449649</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-29.77620409864016</v>
+        <v>-367.46233099188</v>
       </c>
       <c r="B23" t="n">
-        <v>-345.7155560592241</v>
+        <v>-50.1245416147589</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-14.29627116107998</v>
+        <v>-361.9318221341531</v>
       </c>
       <c r="B24" t="n">
-        <v>-343.5346745171674</v>
+        <v>-49.06375824080425</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.9007032536027474</v>
+        <v>-356.4871699740459</v>
       </c>
       <c r="B25" t="n">
-        <v>-341.4198419360742</v>
+        <v>-48.02466940973923</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15.8799143666991</v>
+        <v>-351.1238309198123</v>
       </c>
       <c r="B26" t="n">
-        <v>-339.3599993958993</v>
+        <v>-47.0061622024451</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30.60172928785144</v>
+        <v>-345.8377101602148</v>
       </c>
       <c r="B27" t="n">
-        <v>-337.3587730032468</v>
+        <v>-46.00722805128134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45.12762666644323</v>
+        <v>-340.6249942973276</v>
       </c>
       <c r="B28" t="n">
-        <v>-335.4061192437341</v>
+        <v>-45.02692885372929</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>59.40852869507432</v>
+        <v>-335.4821383754873</v>
       </c>
       <c r="B29" t="n">
-        <v>-333.5070604701605</v>
+        <v>-44.06439289993668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>73.50529633454707</v>
+        <v>-330.4058959650407</v>
       </c>
       <c r="B30" t="n">
-        <v>-331.6520282394708</v>
+        <v>-43.11881892238685</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>87.40274326375336</v>
+        <v>-325.393219896816</v>
       </c>
       <c r="B31" t="n">
-        <v>-329.8417098677212</v>
+        <v>-42.18945611313512</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>101.1421840424675</v>
+        <v>-320.4412608283757</v>
       </c>
       <c r="B32" t="n">
-        <v>-328.0695230040627</v>
+        <v>-41.27560271582513</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>114.6968830519173</v>
+        <v>-315.5474666276385</v>
       </c>
       <c r="B33" t="n">
-        <v>-326.337798809991</v>
+        <v>-40.37662313707187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>128.0652977189379</v>
+        <v>-310.7093451097753</v>
       </c>
       <c r="B34" t="n">
-        <v>-324.6456172899901</v>
+        <v>-39.49190317694001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>141.3053125018249</v>
+        <v>-305.9246014627153</v>
       </c>
       <c r="B35" t="n">
-        <v>-322.9846822912768</v>
+        <v>-38.62087452828649</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>154.3578121570541</v>
+        <v>-301.1911058653915</v>
       </c>
       <c r="B36" t="n">
-        <v>-321.3614829953731</v>
+        <v>-37.76300791501299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>167.2769509061365</v>
+        <v>-296.5068798628187</v>
       </c>
       <c r="B37" t="n">
-        <v>-319.7683912136042</v>
+        <v>-36.91780979358364</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>180.0310425655112</v>
+        <v>-291.8700248762908</v>
       </c>
       <c r="B38" t="n">
-        <v>-318.2084960426319</v>
+        <v>-36.08480877187904</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>192.6601795795672</v>
+        <v>-287.278773004288</v>
       </c>
       <c r="B39" t="n">
-        <v>-316.6761238063327</v>
+        <v>-35.26356420932947</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>205.171764094212</v>
+        <v>-282.7314931076837</v>
       </c>
       <c r="B40" t="n">
-        <v>-315.169707120416</v>
+        <v>-34.45366664980355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>217.5516088864716</v>
+        <v>-278.2266073960257</v>
       </c>
       <c r="B41" t="n">
-        <v>-313.6903043689372</v>
+        <v>-33.65472240750915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>229.8429726747232</v>
+        <v>-273.7626589470818</v>
       </c>
       <c r="B42" t="n">
-        <v>-312.2321612425983</v>
+        <v>-32.86636514321003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>241.9568457411128</v>
+        <v>-269.3382456972798</v>
       </c>
       <c r="B43" t="n">
-        <v>-310.8052194568583</v>
+        <v>-32.08824371681189</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>253.9883649836065</v>
+        <v>-264.9520727024793</v>
       </c>
       <c r="B44" t="n">
-        <v>-309.3976885769099</v>
+        <v>-31.32003101436734</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>265.8957542679138</v>
+        <v>-260.6028888941558</v>
       </c>
       <c r="B45" t="n">
-        <v>-308.0139605564519</v>
+        <v>-30.56141245321544</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>277.7128860878222</v>
+        <v>-256.2895793474776</v>
       </c>
       <c r="B46" t="n">
-        <v>-306.6496145865622</v>
+        <v>-29.81210172937068</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>289.4316452739509</v>
+        <v>-252.0109557747073</v>
       </c>
       <c r="B47" t="n">
-        <v>-305.3051516842667</v>
+        <v>-29.071804077438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>301.0436059740065</v>
+        <v>-247.7660228093065</v>
       </c>
       <c r="B48" t="n">
-        <v>-303.9811024834216</v>
+        <v>-28.34026224111358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>312.5534634352319</v>
+        <v>-243.5537863483656</v>
       </c>
       <c r="B49" t="n">
-        <v>-302.6765096882399</v>
+        <v>-27.6172229013589</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>323.9823221267088</v>
+        <v>-239.3732755441377</v>
       </c>
       <c r="B50" t="n">
-        <v>-301.3886021769789</v>
+        <v>-26.90244035586284</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>335.3191412935187</v>
+        <v>-235.2235953782929</v>
       </c>
       <c r="B51" t="n">
-        <v>-300.1182700325177</v>
+        <v>-26.19568531013454</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>346.5701004018472</v>
+        <v>-231.1039175622692</v>
       </c>
       <c r="B52" t="n">
-        <v>-298.864476175023</v>
+        <v>-25.4967430223715</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>357.7425435219521</v>
+        <v>-227.0134082126668</v>
       </c>
       <c r="B53" t="n">
-        <v>-297.6260833786996</v>
+        <v>-24.80540082729442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>368.8250780523266</v>
+        <v>-222.9512932620128</v>
       </c>
       <c r="B54" t="n">
-        <v>-296.4040447845293</v>
+        <v>-24.1214590909137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>379.838948964936</v>
+        <v>-218.9168280212814</v>
       </c>
       <c r="B55" t="n">
-        <v>-295.1957283223932</v>
+        <v>-23.44472587063589</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>390.7813515496823</v>
+        <v>-214.9093224072752</v>
       </c>
       <c r="B56" t="n">
-        <v>-294.0011787255784</v>
+        <v>-22.77502098082161</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>401.6537058436721</v>
+        <v>-210.9280951974373</v>
       </c>
       <c r="B57" t="n">
-        <v>-292.8199868378234</v>
+        <v>-22.1121681739898</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>412.4536568622314</v>
+        <v>-206.9725090340083</v>
       </c>
       <c r="B58" t="n">
-        <v>-291.6521633069019</v>
+        <v>-21.45600086528648</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>423.1772972883688</v>
+        <v>-203.0419393794957</v>
       </c>
       <c r="B59" t="n">
-        <v>-290.4978901254761</v>
+        <v>-20.80635683527609</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>433.8442731687699</v>
+        <v>-199.1358172893997</v>
       </c>
       <c r="B60" t="n">
-        <v>-289.3548326126537</v>
+        <v>-20.16308518260473</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>444.4357255837898</v>
+        <v>-195.2535369113566</v>
       </c>
       <c r="B61" t="n">
-        <v>-288.2248006414472</v>
+        <v>-19.52603096982259</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>454.9860651829037</v>
+        <v>-191.3945777880431</v>
       </c>
       <c r="B62" t="n">
-        <v>-287.1039299227091</v>
+        <v>-18.89505525713648</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>465.4639787664745</v>
+        <v>-187.5584594649837</v>
       </c>
       <c r="B63" t="n">
-        <v>-285.9953637862352</v>
+        <v>-18.27002743687424</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>475.8798326049938</v>
+        <v>-183.7446263361699</v>
       </c>
       <c r="B64" t="n">
-        <v>-284.8978150116437</v>
+        <v>-17.65080642401267</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>486.2465408132824</v>
+        <v>-179.9526505101277</v>
       </c>
       <c r="B65" t="n">
-        <v>-283.8097539859012</v>
+        <v>-17.03727360413524</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>496.5574700074093</v>
+        <v>-176.1820384194233</v>
       </c>
       <c r="B66" t="n">
-        <v>-282.7317181168423</v>
+        <v>-16.42930131673555</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>506.8126619117808</v>
+        <v>-172.4323440770202</v>
       </c>
       <c r="B67" t="n">
-        <v>-281.663545918141</v>
+        <v>-15.82677117765735</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>517.0168596518968</v>
+        <v>-168.7031752684244</v>
       </c>
       <c r="B68" t="n">
-        <v>-280.6045946388815</v>
+        <v>-15.22957491044156</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>527.1763951452032</v>
+        <v>-164.9941073458211</v>
       </c>
       <c r="B69" t="n">
-        <v>-279.5540698918472</v>
+        <v>-14.63760044007481</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>-161.3047375998192</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-14.05074059047064</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>-157.6347239142439</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-13.468899120245</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-153.9836495534045</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-12.89196921118474</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-150.3512022502846</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-12.31986180072457</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-146.7370178842398</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-11.75248079152499</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-143.1407804013556</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-11.18973877480261</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-139.5621690126214</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-10.63154866728354</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-136.0008771322451</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-10.07782664515869</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-132.4566103138001</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-9.528491772288731</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-128.9290785037396</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-8.983464759011667</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-125.418006422527</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-8.442669532045443</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-121.9231156099917</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-7.906030431131626</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-118.4441530359635</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-7.373476574647526</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-114.9808791902318</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-6.844939970931506</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-111.5330298174594</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-6.320349660515035</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-108.1003566371361</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-5.799637927384509</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-104.6826706784511</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-5.282746793542827</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-101.2797032773329</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-4.769606944401545</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-97.89125257849723</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-4.260159888683063</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-94.51710307019654</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-3.754345754081726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-91.15705884299217</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-3.252108270569749</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-87.8109293664577</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2.753392600701545</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-84.47848725570466</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2.258139050696997</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-81.15957013530978</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-1.766298212518933</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-77.85398065461597</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-1.277816063139738</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-74.56153708607732</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.7926414742350119</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-71.28208050925906</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.3107272249891366</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-68.0154213507049</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1679778762093065</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-64.76138848901579</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.6435217717245507</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-61.5198292671662</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.115949198375461</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-58.29059696873214</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.585303549617038</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-55.07351607413662</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.051631923858054</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-51.86844975472065</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.514975331488586</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-48.67522553360521</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.975379480927984</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-45.49373166633129</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.432880876136437</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-42.32380709521293</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.887522700744142</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-39.16530778789841</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.339345254328208</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-36.0181174196087</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.788384468656147</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-32.88208467692249</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.234680875655357</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-29.75709885109432</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.678268832730794</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-26.6430120953419</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.119187595566217</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-23.53971004679301</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.557471295656569</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-20.4470855715328</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.993152699556873</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-17.36499884934931</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.426268828722755</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-14.29332160643476</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.856854714831059</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-11.2319812749792</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8.284937257762095</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-8.180827867878859</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8.710553873032438</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-5.139780498750533</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9.133732000524475</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-2.108696517351144</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.554507370400501</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>0.9125153879997457</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.972908259968335</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>3.923955110931622</v>
+      </c>
+      <c r="B120" t="n">
+        <v>10.38896385197518</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>6.925716450877659</v>
+      </c>
+      <c r="B121" t="n">
+        <v>10.80270220405271</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>9.917924998791431</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.2141554660829</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>12.90064745827598</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11.62334740772118</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>15.87400837448739</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.03030947443563</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>18.8380968481184</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.43506797574153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>21.7930003849076</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.83764875131357</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>24.73880473031061</v>
+      </c>
+      <c r="B127" t="n">
+        <v>13.23807715449615</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>27.67561379963225</v>
+      </c>
+      <c r="B128" t="n">
+        <v>13.63638075837855</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>30.60351582768323</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.03258475606665</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>33.5226004511908</v>
+      </c>
+      <c r="B130" t="n">
+        <v>14.42671429187453</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>36.43293419085444</v>
+      </c>
+      <c r="B131" t="n">
+        <v>14.81879116315326</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>39.33462293716723</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.20884224798664</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>42.22774131439917</v>
+      </c>
+      <c r="B133" t="n">
+        <v>15.59688998626322</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45.11237892557497</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.98295861124194</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>47.98860783468128</v>
+      </c>
+      <c r="B135" t="n">
+        <v>16.36706979280387</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>50.85651515450252</v>
+      </c>
+      <c r="B136" t="n">
+        <v>16.74924700362769</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>53.71616302987272</v>
+      </c>
+      <c r="B137" t="n">
+        <v>17.1295101849515</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>56.5676591922741</v>
+      </c>
+      <c r="B138" t="n">
+        <v>17.50788513685569</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>59.411048129678</v>
+      </c>
+      <c r="B139" t="n">
+        <v>17.88438906166527</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>62.24643270831489</v>
+      </c>
+      <c r="B140" t="n">
+        <v>18.25904670856335</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>65.07386012320299</v>
+      </c>
+      <c r="B141" t="n">
+        <v>18.63187527241078</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>67.8934236019588</v>
+      </c>
+      <c r="B142" t="n">
+        <v>19.00289784181513</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>70.70518125463005</v>
+      </c>
+      <c r="B143" t="n">
+        <v>19.37213269345682</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>73.50921920031394</v>
+      </c>
+      <c r="B144" t="n">
+        <v>19.73960160620982</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>76.30558797103451</v>
+      </c>
+      <c r="B145" t="n">
+        <v>20.1053215171946</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>79.09437454842077</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20.46931396397702</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>81.87564289491846</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20.83159730037841</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>84.64944283102378</v>
+      </c>
+      <c r="B148" t="n">
+        <v>21.19218788173288</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>87.41586882553059</v>
+      </c>
+      <c r="B149" t="n">
+        <v>21.55110770511382</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>90.17495683094219</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.9083710090807</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>92.92680214107919</v>
+      </c>
+      <c r="B151" t="n">
+        <v>22.26399956637141</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>95.67144110776511</v>
+      </c>
+      <c r="B152" t="n">
+        <v>22.61800736953617</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>98.40895785756283</v>
+      </c>
+      <c r="B153" t="n">
+        <v>22.97041443137806</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>101.1393891184697</v>
+      </c>
+      <c r="B154" t="n">
+        <v>23.32123451090749</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>103.8628231067053</v>
+      </c>
+      <c r="B155" t="n">
+        <v>23.67048784274451</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>106.5792967383461</v>
+      </c>
+      <c r="B156" t="n">
+        <v>24.01818793199743</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>109.2888920593529</v>
+      </c>
+      <c r="B157" t="n">
+        <v>24.36435392616872</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>111.9916549354346</v>
+      </c>
+      <c r="B158" t="n">
+        <v>24.70900020403593</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>114.6876452773821</v>
+      </c>
+      <c r="B159" t="n">
+        <v>25.05214280731579</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>117.3769093423247</v>
+      </c>
+      <c r="B160" t="n">
+        <v>25.39379590997987</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>120.0595186396056</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25.73397676499096</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>122.7355368351034</v>
+      </c>
+      <c r="B162" t="n">
+        <v>26.07270149124324</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>125.4049972493351</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26.40998224395241</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>128.0679717403196</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26.74583593053862</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>130.7245059722375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.08027602639146</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>133.3746581638967</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.41331747114873</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>136.0184717056045</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.74497322405037</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>138.6559986544151</v>
+      </c>
+      <c r="B168" t="n">
+        <v>28.07525722142648</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>141.2873176399989</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28.40418660488774</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>143.9124501891376</v>
+      </c>
+      <c r="B170" t="n">
+        <v>28.73177126130884</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>146.5314486773265</v>
+      </c>
+      <c r="B171" t="n">
+        <v>29.05802483293891</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>149.1443738003261</v>
+      </c>
+      <c r="B172" t="n">
+        <v>29.38296188616107</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>151.7512707737611</v>
+      </c>
+      <c r="B173" t="n">
+        <v>29.70659495186737</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>154.3521932568009</v>
+      </c>
+      <c r="B174" t="n">
+        <v>30.02893750565761</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>156.9471882149962</v>
+      </c>
+      <c r="B175" t="n">
+        <v>30.35000208898924</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>159.5362925265719</v>
+      </c>
+      <c r="B176" t="n">
+        <v>30.66979989861295</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>162.1195496321736</v>
+      </c>
+      <c r="B177" t="n">
+        <v>30.98834284952846</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>164.6970342862554</v>
+      </c>
+      <c r="B178" t="n">
+        <v>31.3056466138616</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>167.2687701601294</v>
+      </c>
+      <c r="B179" t="n">
+        <v>31.62172047182634</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>169.8348042158358</v>
+      </c>
+      <c r="B180" t="n">
+        <v>31.93657648291779</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>172.3951921551935</v>
+      </c>
+      <c r="B181" t="n">
+        <v>32.25022768244872</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>174.9499633869549</v>
+      </c>
+      <c r="B182" t="n">
+        <v>32.56268379289276</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>177.499179321921</v>
+      </c>
+      <c r="B183" t="n">
+        <v>32.87395836341022</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>180.0428667624007</v>
+      </c>
+      <c r="B184" t="n">
+        <v>33.18406062549735</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>182.5810909639292</v>
+      </c>
+      <c r="B185" t="n">
+        <v>33.49300441351005</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185.1138647088852</v>
+      </c>
+      <c r="B186" t="n">
+        <v>33.80079708755738</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>187.641245722107</v>
+      </c>
+      <c r="B187" t="n">
+        <v>34.10745139524295</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>190.1632927906457</v>
+      </c>
+      <c r="B188" t="n">
+        <v>34.41298011812708</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>192.6800226008839</v>
+      </c>
+      <c r="B189" t="n">
+        <v>34.71739085521853</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>195.191484835613</v>
+      </c>
+      <c r="B190" t="n">
+        <v>35.0206951257089</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>197.697723561542</v>
+      </c>
+      <c r="B191" t="n">
+        <v>35.32290368666446</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>200.1987680049585</v>
+      </c>
+      <c r="B192" t="n">
+        <v>35.62402542947956</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>202.6946698609785</v>
+      </c>
+      <c r="B193" t="n">
+        <v>35.92407187611272</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>205.1854589074323</v>
+      </c>
+      <c r="B194" t="n">
+        <v>36.22305183568903</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>207.6711828365425</v>
+      </c>
+      <c r="B195" t="n">
+        <v>36.52097619562716</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>210.1518805064794</v>
+      </c>
+      <c r="B196" t="n">
+        <v>36.81785470767767</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>212.6275810354394</v>
+      </c>
+      <c r="B197" t="n">
+        <v>37.11369588852341</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>215.0983338864433</v>
+      </c>
+      <c r="B198" t="n">
+        <v>37.40851061630349</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>217.564157946647</v>
+      </c>
+      <c r="B199" t="n">
+        <v>37.70230605098357</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>220.0251161859767</v>
+      </c>
+      <c r="B200" t="n">
+        <v>37.99509453769372</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>222.4812268443102</v>
+      </c>
+      <c r="B201" t="n">
+        <v>38.28688302600682</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>224.9325300531457</v>
+      </c>
+      <c r="B202" t="n">
+        <v>38.57768100681918</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>227.3790639598205</v>
+      </c>
+      <c r="B203" t="n">
+        <v>38.86749766805599</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>229.8208600980541</v>
+      </c>
+      <c r="B204" t="n">
+        <v>39.15634134990296</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>232.2579652816601</v>
+      </c>
+      <c r="B205" t="n">
+        <v>39.44422213543928</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>234.6903934916068</v>
+      </c>
+      <c r="B206" t="n">
+        <v>39.73114616734551</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>237.1182001052315</v>
+      </c>
+      <c r="B207" t="n">
+        <v>40.01712441332216</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>239.5414153330668</v>
+      </c>
+      <c r="B208" t="n">
+        <v>40.30216480842506</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>241.9600571665101</v>
+      </c>
+      <c r="B209" t="n">
+        <v>40.58627379626307</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>244.3741783640036</v>
+      </c>
+      <c r="B210" t="n">
+        <v>40.8694618473908</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>246.7838036467551</v>
+      </c>
+      <c r="B211" t="n">
+        <v>41.15173607985724</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>249.1889653242699</v>
+      </c>
+      <c r="B212" t="n">
+        <v>41.43310444715991</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>251.5897060741655</v>
+      </c>
+      <c r="B213" t="n">
+        <v>41.71357605735588</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>253.9860377883181</v>
+      </c>
+      <c r="B214" t="n">
+        <v>41.99315636737109</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>256.3780118061705</v>
+      </c>
+      <c r="B215" t="n">
+        <v>42.27185538537589</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>258.7656528929257</v>
+      </c>
+      <c r="B216" t="n">
+        <v>42.54967996357874</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>261.1489919684758</v>
+      </c>
+      <c r="B217" t="n">
+        <v>42.82663762017668</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>263.5280624028141</v>
+      </c>
+      <c r="B218" t="n">
+        <v>43.10273610554526</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>265.9028950901512</v>
+      </c>
+      <c r="B219" t="n">
+        <v>43.37798283042147</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>268.2735137903711</v>
+      </c>
+      <c r="B220" t="n">
+        <v>43.65238432947584</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>270.6399627572941</v>
+      </c>
+      <c r="B221" t="n">
+        <v>43.92594945900476</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>273.0022546379957</v>
+      </c>
+      <c r="B222" t="n">
+        <v>44.19868337092339</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>275.3604383127424</v>
+      </c>
+      <c r="B223" t="n">
+        <v>44.47059535402249</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>277.7145247911581</v>
+      </c>
+      <c r="B224" t="n">
+        <v>44.7416902795552</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>280.0645514011281</v>
+      </c>
+      <c r="B225" t="n">
+        <v>45.0119760073639</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>282.4105498784156</v>
+      </c>
+      <c r="B226" t="n">
+        <v>45.28145970404469</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>284.7525512034301</v>
+      </c>
+      <c r="B227" t="n">
+        <v>45.55014840209455</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>287.0905721507867</v>
+      </c>
+      <c r="B228" t="n">
+        <v>45.81804746073078</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>289.4246481233209</v>
+      </c>
+      <c r="B229" t="n">
+        <v>46.08516433170755</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>291.7548144234514</v>
+      </c>
+      <c r="B230" t="n">
+        <v>46.35150640724481</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>294.0810795444797</v>
+      </c>
+      <c r="B231" t="n">
+        <v>46.6170779733788</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>296.4034876393523</v>
+      </c>
+      <c r="B232" t="n">
+        <v>46.88188734762207</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>298.7220665072102</v>
+      </c>
+      <c r="B233" t="n">
+        <v>47.1459409347512</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>301.0368265276322</v>
+      </c>
+      <c r="B234" t="n">
+        <v>47.40924311740577</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>303.3478121472127</v>
+      </c>
+      <c r="B235" t="n">
+        <v>47.6718021144178</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>305.655041791193</v>
+      </c>
+      <c r="B236" t="n">
+        <v>47.93362314349952</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>307.9585404835648</v>
+      </c>
+      <c r="B237" t="n">
+        <v>48.19471213434963</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>310.2583354813619</v>
+      </c>
+      <c r="B238" t="n">
+        <v>48.45507523067471</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>312.5544577783339</v>
+      </c>
+      <c r="B239" t="n">
+        <v>48.71471895906521</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>314.8469242006403</v>
+      </c>
+      <c r="B240" t="n">
+        <v>48.97364820589445</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>317.1357644169303</v>
+      </c>
+      <c r="B241" t="n">
+        <v>49.23186927243768</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>319.4210035646142</v>
+      </c>
+      <c r="B242" t="n">
+        <v>49.48938791021865</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>321.7026654007137</v>
+      </c>
+      <c r="B243" t="n">
+        <v>49.74620967880642</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>323.9807724699985</v>
+      </c>
+      <c r="B244" t="n">
+        <v>50.00233996597908</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>326.2553599585481</v>
+      </c>
+      <c r="B245" t="n">
+        <v>50.25778554380241</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>328.5264382490335</v>
+      </c>
+      <c r="B246" t="n">
+        <v>50.51255036292264</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>330.7940410322378</v>
+      </c>
+      <c r="B247" t="n">
+        <v>50.76664095654093</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>333.0581794496345</v>
+      </c>
+      <c r="B248" t="n">
+        <v>51.02006129631411</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>335.3188962244183</v>
+      </c>
+      <c r="B249" t="n">
+        <v>51.27281885544284</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>337.5762001002515</v>
+      </c>
+      <c r="B250" t="n">
+        <v>51.52491727162632</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>339.8301154423097</v>
+      </c>
+      <c r="B251" t="n">
+        <v>51.77636189868139</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>342.0806747885135</v>
+      </c>
+      <c r="B252" t="n">
+        <v>52.02715896769902</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>344.3278845937755</v>
+      </c>
+      <c r="B253" t="n">
+        <v>52.27731177128868</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>346.5717889253458</v>
+      </c>
+      <c r="B254" t="n">
+        <v>52.52682775850974</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>348.8123881941766</v>
+      </c>
+      <c r="B255" t="n">
+        <v>52.7757094904033</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>351.0497179912356</v>
+      </c>
+      <c r="B256" t="n">
+        <v>53.0239634092444</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>353.2838000845751</v>
+      </c>
+      <c r="B257" t="n">
+        <v>53.27159438935405</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>355.5146458700768</v>
+      </c>
+      <c r="B258" t="n">
+        <v>53.51860612744619</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>357.7422901336407</v>
+      </c>
+      <c r="B259" t="n">
+        <v>53.76500488140408</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>359.9667468033045</v>
+      </c>
+      <c r="B260" t="n">
+        <v>54.01079457047163</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>362.1880319483004</v>
+      </c>
+      <c r="B261" t="n">
+        <v>54.25597932487787</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>364.4061792396927</v>
+      </c>
+      <c r="B262" t="n">
+        <v>54.50056518876744</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>366.6212132857471</v>
+      </c>
+      <c r="B263" t="n">
+        <v>54.74455717485142</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>368.8331251989821</v>
+      </c>
+      <c r="B264" t="n">
+        <v>54.98795658262296</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>371.041968098467</v>
+      </c>
+      <c r="B265" t="n">
+        <v>55.23077151043401</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>373.2477438574379</v>
+      </c>
+      <c r="B266" t="n">
+        <v>55.47300439042033</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>375.4504787676269</v>
+      </c>
+      <c r="B267" t="n">
+        <v>55.7146603139482</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>377.6501875271701</v>
+      </c>
+      <c r="B268" t="n">
+        <v>55.95574307354224</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>379.8469056676726</v>
+      </c>
+      <c r="B269" t="n">
+        <v>56.19625871812593</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>382.040634718514</v>
+      </c>
+      <c r="B270" t="n">
+        <v>56.43620954701464</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>384.2314010650135</v>
+      </c>
+      <c r="B271" t="n">
+        <v>56.67560055695603</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>386.4192244665331</v>
+      </c>
+      <c r="B272" t="n">
+        <v>56.91443599394614</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>388.6041229073313</v>
+      </c>
+      <c r="B273" t="n">
+        <v>57.15271988581154</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>390.7861252290634</v>
+      </c>
+      <c r="B274" t="n">
+        <v>57.39045741908984</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>392.965232011035</v>
+      </c>
+      <c r="B275" t="n">
+        <v>57.62765067749052</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>395.1414739367303</v>
+      </c>
+      <c r="B276" t="n">
+        <v>57.86430500090501</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>397.3148601150503</v>
+      </c>
+      <c r="B277" t="n">
+        <v>58.10042335821245</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>399.4854170402808</v>
+      </c>
+      <c r="B278" t="n">
+        <v>58.33601058530093</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>401.6531718559511</v>
+      </c>
+      <c r="B279" t="n">
+        <v>58.57107156242597</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>403.8181232355242</v>
+      </c>
+      <c r="B280" t="n">
+        <v>58.80560806104265</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>405.9802970759467</v>
+      </c>
+      <c r="B281" t="n">
+        <v>59.03962478347535</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>408.1397120428952</v>
+      </c>
+      <c r="B282" t="n">
+        <v>59.27312562544651</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>410.2963924050523</v>
+      </c>
+      <c r="B283" t="n">
+        <v>59.50611506581572</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>412.4503429658284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>59.73859545959178</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>414.6015841670525</v>
+      </c>
+      <c r="B285" t="n">
+        <v>59.97057083139089</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>416.7501415102981</v>
+      </c>
+      <c r="B286" t="n">
+        <v>60.20204572873607</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>418.8960210776605</v>
+      </c>
+      <c r="B287" t="n">
+        <v>60.43302258612914</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>421.03924723442</v>
+      </c>
+      <c r="B288" t="n">
+        <v>60.66350578743194</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>423.1798329081385</v>
+      </c>
+      <c r="B289" t="n">
+        <v>60.89349846530905</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>425.3177996239903</v>
+      </c>
+      <c r="B290" t="n">
+        <v>61.12300465673047</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>427.4531581804237</v>
+      </c>
+      <c r="B291" t="n">
+        <v>61.35202722739027</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>429.5859316359476</v>
+      </c>
+      <c r="B292" t="n">
+        <v>61.58057033912115</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>431.7161225781058</v>
+      </c>
+      <c r="B293" t="n">
+        <v>61.80863594153107</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>433.8437600546851</v>
+      </c>
+      <c r="B294" t="n">
+        <v>62.03622879981779</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>435.9688616664137</v>
+      </c>
+      <c r="B295" t="n">
+        <v>62.26335243294537</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>438.0914292978539</v>
+      </c>
+      <c r="B296" t="n">
+        <v>62.49000866350514</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>440.2114894411822</v>
+      </c>
+      <c r="B297" t="n">
+        <v>62.71620192548886</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>442.3290539630268</v>
+      </c>
+      <c r="B298" t="n">
+        <v>62.94193507267929</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>444.4441403824511</v>
+      </c>
+      <c r="B299" t="n">
+        <v>63.16721154439287</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>446.5567599613329</v>
+      </c>
+      <c r="B300" t="n">
+        <v>63.39203409620995</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>448.6669341385415</v>
+      </c>
+      <c r="B301" t="n">
+        <v>63.61640654965208</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>450.774674906692</v>
+      </c>
+      <c r="B302" t="n">
+        <v>63.84033170390092</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>452.8799962878217</v>
+      </c>
+      <c r="B303" t="n">
+        <v>64.06381255782296</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>454.9829130629338</v>
+      </c>
+      <c r="B304" t="n">
+        <v>64.28685217453017</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>457.0834406638531</v>
+      </c>
+      <c r="B305" t="n">
+        <v>64.50945366974608</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>459.1815926167037</v>
+      </c>
+      <c r="B306" t="n">
+        <v>64.73161994108935</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>461.2773870233124</v>
+      </c>
+      <c r="B307" t="n">
+        <v>64.95335435450829</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>463.3708298844325</v>
+      </c>
+      <c r="B308" t="n">
+        <v>65.17465898021899</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>465.461938332489</v>
+      </c>
+      <c r="B309" t="n">
+        <v>65.39553705107707</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>467.5507349576617</v>
+      </c>
+      <c r="B310" t="n">
+        <v>65.61599235934844</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>469.6372303161179</v>
+      </c>
+      <c r="B311" t="n">
+        <v>65.83602741067227</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>471.7214336024674</v>
+      </c>
+      <c r="B312" t="n">
+        <v>66.05564455344944</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>473.8033520360213</v>
+      </c>
+      <c r="B313" t="n">
+        <v>66.2748459149461</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>475.8830176711227</v>
+      </c>
+      <c r="B314" t="n">
+        <v>66.49363622168818</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>477.9604277231791</v>
+      </c>
+      <c r="B315" t="n">
+        <v>66.71201651873523</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>480.0356047813542</v>
+      </c>
+      <c r="B316" t="n">
+        <v>66.9299905064496</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>482.1085589142247</v>
+      </c>
+      <c r="B317" t="n">
+        <v>67.14756055444812</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>484.1793028264844</v>
+      </c>
+      <c r="B318" t="n">
+        <v>67.36472929582089</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>486.2478461018933</v>
+      </c>
+      <c r="B319" t="n">
+        <v>67.58149902311112</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>488.3142124132015</v>
+      </c>
+      <c r="B320" t="n">
+        <v>67.79787349110325</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>490.3784063101662</v>
+      </c>
+      <c r="B321" t="n">
+        <v>68.01385443757573</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>492.4404437266592</v>
+      </c>
+      <c r="B322" t="n">
+        <v>68.22944477946953</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>494.5003329336581</v>
+      </c>
+      <c r="B323" t="n">
+        <v>68.44464661932531</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>496.5580914715204</v>
+      </c>
+      <c r="B324" t="n">
+        <v>68.6594630153939</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>498.6137263303827</v>
+      </c>
+      <c r="B325" t="n">
+        <v>68.87389591140322</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>500.6672577546502</v>
+      </c>
+      <c r="B326" t="n">
+        <v>69.08794862118324</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>502.7186937044413</v>
+      </c>
+      <c r="B327" t="n">
+        <v>69.30162316454704</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>504.7680446761051</v>
+      </c>
+      <c r="B328" t="n">
+        <v>69.51492181414858</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>506.8153226772216</v>
+      </c>
+      <c r="B329" t="n">
+        <v>69.72784698804074</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>508.8605404004953</v>
+      </c>
+      <c r="B330" t="n">
+        <v>69.94040116338098</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>510.9037166269148</v>
+      </c>
+      <c r="B331" t="n">
+        <v>70.15258743720233</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>512.9448561244976</v>
+      </c>
+      <c r="B332" t="n">
+        <v>70.36440743896938</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>514.9839657986156</v>
+      </c>
+      <c r="B333" t="n">
+        <v>70.57586301016607</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>517.0210672302898</v>
+      </c>
+      <c r="B334" t="n">
+        <v>70.78695750238717</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>519.0561706395558</v>
+      </c>
+      <c r="B335" t="n">
+        <v>70.99769307683118</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>521.0892789517707</v>
+      </c>
+      <c r="B336" t="n">
+        <v>71.20807112926539</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>523.1204139174296</v>
+      </c>
+      <c r="B337" t="n">
+        <v>71.41809499269641</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>525.1495797382164</v>
+      </c>
+      <c r="B338" t="n">
+        <v>71.62776617339983</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>527.1767906280155</v>
+      </c>
+      <c r="B339" t="n">
+        <v>71.83708720228407</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_40.xlsx
+++ b/Phase_distribution_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,2706 +440,1594 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-519.251761712903</v>
+        <v>-527.3666513385953</v>
       </c>
       <c r="B2" t="n">
-        <v>-81.29791856869878</v>
+        <v>-304.7751053515213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-509.2825640767585</v>
+        <v>-509.9942278109555</v>
       </c>
       <c r="B3" t="n">
-        <v>-79.13314539967155</v>
+        <v>-300.9909184857372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-499.7855914047989</v>
+        <v>-494.0108664498225</v>
       </c>
       <c r="B4" t="n">
-        <v>-77.0854156616071</v>
+        <v>-297.5510447484762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-490.7065741590544</v>
+        <v>-479.1585686228701</v>
       </c>
       <c r="B5" t="n">
-        <v>-75.14125227393896</v>
+        <v>-294.3914309723054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-481.9999401030306</v>
+        <v>-465.244042677803</v>
       </c>
       <c r="B6" t="n">
-        <v>-73.28935621420828</v>
+        <v>-291.4642197524058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-473.6270012674839</v>
+        <v>-452.1190510043985</v>
       </c>
       <c r="B7" t="n">
-        <v>-71.52015209010113</v>
+        <v>-288.7327914633772</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-465.5547864504031</v>
+        <v>-439.6673456340229</v>
       </c>
       <c r="B8" t="n">
-        <v>-69.82548770062897</v>
+        <v>-286.1684926323712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-457.7548974997628</v>
+        <v>-427.796422700384</v>
       </c>
       <c r="B9" t="n">
-        <v>-68.19835088130861</v>
+        <v>-283.7485557560343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-450.2027239007749</v>
+        <v>-416.4314621762791</v>
       </c>
       <c r="B10" t="n">
-        <v>-66.63267164473291</v>
+        <v>-281.4545901634226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-442.8766881725148</v>
+        <v>-405.5110457622173</v>
       </c>
       <c r="B11" t="n">
-        <v>-65.12313838484602</v>
+        <v>-279.2715193654375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-435.7580180928852</v>
+        <v>-394.9844090202708</v>
       </c>
       <c r="B12" t="n">
-        <v>-63.66512863537514</v>
+        <v>-277.1868842199841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-428.8300908772916</v>
+        <v>-384.8088534151183</v>
       </c>
       <c r="B13" t="n">
-        <v>-62.25455565325467</v>
+        <v>-275.1902180215498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-422.078229568073</v>
+        <v>-374.9484695966865</v>
       </c>
       <c r="B14" t="n">
-        <v>-60.88781184709796</v>
+        <v>-273.272710669594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-415.4893394637278</v>
+        <v>-365.3725132855076</v>
       </c>
       <c r="B15" t="n">
-        <v>-59.56168219740653</v>
+        <v>-271.4268249322512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-409.0517677017088</v>
+        <v>-356.0546982485595</v>
       </c>
       <c r="B16" t="n">
-        <v>-58.27330526680419</v>
+        <v>-269.6461078131217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-402.7550009525161</v>
+        <v>-346.9722573744222</v>
       </c>
       <c r="B17" t="n">
-        <v>-57.02010347471179</v>
+        <v>-267.9249682383233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-396.5896102632382</v>
+        <v>-338.1054056205831</v>
       </c>
       <c r="B18" t="n">
-        <v>-55.79976452674177</v>
+        <v>-266.2585414075003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-390.547144952848</v>
+        <v>-329.436848699732</v>
       </c>
       <c r="B19" t="n">
-        <v>-54.61021350009833</v>
+        <v>-264.642568537065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-384.6198511354832</v>
+        <v>-320.95137289103</v>
       </c>
       <c r="B20" t="n">
-        <v>-53.44955162724068</v>
+        <v>-263.0732975276717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-378.8007957144011</v>
+        <v>-312.6355143348552</v>
       </c>
       <c r="B21" t="n">
-        <v>-52.31607582523336</v>
+        <v>-261.5474030002459</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-373.0835623254457</v>
+        <v>-304.4773645666846</v>
       </c>
       <c r="B22" t="n">
-        <v>-51.20821491449649</v>
+        <v>-260.0619348686865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-367.46233099188</v>
+        <v>-296.46631866734</v>
       </c>
       <c r="B23" t="n">
-        <v>-50.1245416147589</v>
+        <v>-258.6142590252358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-361.9318221341531</v>
+        <v>-288.5928509185436</v>
       </c>
       <c r="B24" t="n">
-        <v>-49.06375824080425</v>
+        <v>-257.202005680194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-356.4871699740459</v>
+        <v>-280.8484144901499</v>
       </c>
       <c r="B25" t="n">
-        <v>-48.02466940973923</v>
+        <v>-255.8230420424338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-351.1238309198123</v>
+        <v>-273.2253561780332</v>
       </c>
       <c r="B26" t="n">
-        <v>-47.0061622024451</v>
+        <v>-254.4754488865725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-345.8377101602148</v>
+        <v>-265.7166806058992</v>
       </c>
       <c r="B27" t="n">
-        <v>-46.00722805128134</v>
+        <v>-253.1574718394529</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-340.6249942973276</v>
+        <v>-258.3161164140629</v>
       </c>
       <c r="B28" t="n">
-        <v>-45.02692885372929</v>
+        <v>-251.8675272014095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-335.4821383754873</v>
+        <v>-251.0179255310152</v>
       </c>
       <c r="B29" t="n">
-        <v>-44.06439289993668</v>
+        <v>-250.6041632375947</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-330.4058959650407</v>
+        <v>-243.8168660133905</v>
       </c>
       <c r="B30" t="n">
-        <v>-43.11881892238685</v>
+        <v>-249.3660493910692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-325.393219896816</v>
+        <v>-236.7081621182838</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.18945611313512</v>
+        <v>-248.1519671807986</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-320.4412608283757</v>
+        <v>-229.6874013301913</v>
       </c>
       <c r="B32" t="n">
-        <v>-41.27560271582513</v>
+        <v>-246.9607891286415</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-315.5474666276385</v>
+        <v>-222.7506064410126</v>
       </c>
       <c r="B33" t="n">
-        <v>-40.37662313707187</v>
+        <v>-245.791487938127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-310.7093451097753</v>
+        <v>-215.8940090376885</v>
       </c>
       <c r="B34" t="n">
-        <v>-39.49190317694001</v>
+        <v>-244.6430954877013</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-305.9246014627153</v>
+        <v>-209.1142507143248</v>
       </c>
       <c r="B35" t="n">
-        <v>-38.62087452828649</v>
+        <v>-243.5147343551931</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-301.1911058653915</v>
+        <v>-202.4081019203196</v>
       </c>
       <c r="B36" t="n">
-        <v>-37.76300791501299</v>
+        <v>-242.405568642152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-296.5068798628187</v>
+        <v>-195.7726269710354</v>
       </c>
       <c r="B37" t="n">
-        <v>-36.91780979358364</v>
+        <v>-241.3148297412187</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-291.8700248762908</v>
+        <v>-189.2051467603617</v>
       </c>
       <c r="B38" t="n">
-        <v>-36.08480877187904</v>
+        <v>-240.2418082184182</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-287.278773004288</v>
+        <v>-182.7030385192697</v>
       </c>
       <c r="B39" t="n">
-        <v>-35.26356420932947</v>
+        <v>-239.1858196161646</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-282.7314931076837</v>
+        <v>-176.2639982290257</v>
       </c>
       <c r="B40" t="n">
-        <v>-34.45366664980355</v>
+        <v>-238.1462459495187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-278.2266073960257</v>
+        <v>-169.8857734718117</v>
       </c>
       <c r="B41" t="n">
-        <v>-33.65472240750915</v>
+        <v>-237.1224910038214</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-273.7626589470818</v>
+        <v>-163.566295588466</v>
       </c>
       <c r="B42" t="n">
-        <v>-32.86636514321003</v>
+        <v>-236.1140007287263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-269.3382456972798</v>
+        <v>-157.3036410617164</v>
       </c>
       <c r="B43" t="n">
-        <v>-32.08824371681189</v>
+        <v>-235.1202559169885</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-264.9520727024793</v>
+        <v>-151.0959640125903</v>
       </c>
       <c r="B44" t="n">
-        <v>-31.32003101436734</v>
+        <v>-234.140760593326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-260.6028888941558</v>
+        <v>-144.9415515651355</v>
       </c>
       <c r="B45" t="n">
-        <v>-30.56141245321544</v>
+        <v>-233.1750500207252</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-256.2895793474776</v>
+        <v>-138.83879030175</v>
       </c>
       <c r="B46" t="n">
-        <v>-29.81210172937068</v>
+        <v>-232.2226846102534</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-252.0109557747073</v>
+        <v>-132.7861439710826</v>
       </c>
       <c r="B47" t="n">
-        <v>-29.071804077438</v>
+        <v>-231.2832457761675</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-247.7660228093065</v>
+        <v>-126.7821971849268</v>
       </c>
       <c r="B48" t="n">
-        <v>-28.34026224111358</v>
+        <v>-230.356342088038</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-243.5537863483656</v>
+        <v>-120.8255494131272</v>
       </c>
       <c r="B49" t="n">
-        <v>-27.6172229013589</v>
+        <v>-229.4415923032315</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-239.3732755441377</v>
+        <v>-114.9149368719397</v>
       </c>
       <c r="B50" t="n">
-        <v>-26.90244035586284</v>
+        <v>-228.5386436582006</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-235.2235953782929</v>
+        <v>-109.0491128895598</v>
       </c>
       <c r="B51" t="n">
-        <v>-26.19568531013454</v>
+        <v>-227.6471529836602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-231.1039175622692</v>
+        <v>-103.2269167423613</v>
       </c>
       <c r="B52" t="n">
-        <v>-25.4967430223715</v>
+        <v>-226.7667968275393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-227.0134082126668</v>
+        <v>-97.44723950861209</v>
       </c>
       <c r="B53" t="n">
-        <v>-24.80540082729442</v>
+        <v>-225.8972658188783</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-222.9512932620128</v>
+        <v>-91.70904170945651</v>
       </c>
       <c r="B54" t="n">
-        <v>-24.1214590909137</v>
+        <v>-225.0382669369517</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-218.9168280212814</v>
+        <v>-86.01130057196066</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.44472587063589</v>
+        <v>-224.189515258116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-214.9093224072752</v>
+        <v>-80.35306751984844</v>
       </c>
       <c r="B56" t="n">
-        <v>-22.77502098082161</v>
+        <v>-223.3507422460927</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-210.9280951974373</v>
+        <v>-74.73340619992439</v>
       </c>
       <c r="B57" t="n">
-        <v>-22.1121681739898</v>
+        <v>-222.5216862226038</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-206.9725090340083</v>
+        <v>-69.15145404364844</v>
       </c>
       <c r="B58" t="n">
-        <v>-21.45600086528648</v>
+        <v>-221.7021012075903</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-203.0419393794957</v>
+        <v>-63.60637432547384</v>
       </c>
       <c r="B59" t="n">
-        <v>-20.80635683527609</v>
+        <v>-220.8917495466047</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-199.1358172893997</v>
+        <v>-58.09733292239832</v>
       </c>
       <c r="B60" t="n">
-        <v>-20.16308518260473</v>
+        <v>-220.0903983312852</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-195.2535369113566</v>
+        <v>-52.62359451021487</v>
       </c>
       <c r="B61" t="n">
-        <v>-19.52603096982259</v>
+        <v>-219.29783317305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-191.3945777880431</v>
+        <v>-47.18438254801946</v>
       </c>
       <c r="B62" t="n">
-        <v>-18.89505525713648</v>
+        <v>-218.5138376335764</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-187.5584594649837</v>
+        <v>-41.77899839835215</v>
       </c>
       <c r="B63" t="n">
-        <v>-18.27002743687424</v>
+        <v>-217.73821031228</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-183.7446263361699</v>
+        <v>-36.40676111660774</v>
       </c>
       <c r="B64" t="n">
-        <v>-17.65080642401267</v>
+        <v>-216.9707559168017</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-179.9526505101277</v>
+        <v>-31.06698669470967</v>
       </c>
       <c r="B65" t="n">
-        <v>-17.03727360413524</v>
+        <v>-216.2112821709707</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-176.1820384194233</v>
+        <v>-25.7590532393993</v>
       </c>
       <c r="B66" t="n">
-        <v>-16.42930131673555</v>
+        <v>-215.4596089467009</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-172.4323440770202</v>
+        <v>-20.48232444904593</v>
       </c>
       <c r="B67" t="n">
-        <v>-15.82677117765735</v>
+        <v>-214.7155572236782</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-168.7031752684244</v>
+        <v>-15.23623492836749</v>
       </c>
       <c r="B68" t="n">
-        <v>-15.22957491044156</v>
+        <v>-213.9789610073747</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-164.9941073458211</v>
+        <v>-10.02018658381651</v>
       </c>
       <c r="B69" t="n">
-        <v>-14.63760044007481</v>
+        <v>-213.2496525882364</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-161.3047375998192</v>
+        <v>-4.833629399481316</v>
       </c>
       <c r="B70" t="n">
-        <v>-14.05074059047064</v>
+        <v>-212.5274737898793</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-157.6347239142439</v>
+        <v>0.3239673422480734</v>
       </c>
       <c r="B71" t="n">
-        <v>-13.468899120245</v>
+        <v>-211.8122717789794</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-153.9836495534045</v>
+        <v>5.453124991940237</v>
       </c>
       <c r="B72" t="n">
-        <v>-12.89196921118474</v>
+        <v>-211.1038975770778</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-150.3512022502846</v>
+        <v>10.55436945092332</v>
       </c>
       <c r="B73" t="n">
-        <v>-12.31986180072457</v>
+        <v>-210.4022040617397</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-146.7370178842398</v>
+        <v>15.62816752593621</v>
       </c>
       <c r="B74" t="n">
-        <v>-11.75248079152499</v>
+        <v>-209.707054621256</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-143.1407804013556</v>
+        <v>20.67501158793305</v>
       </c>
       <c r="B75" t="n">
-        <v>-11.18973877480261</v>
+        <v>-209.0183114067979</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-139.5621690126214</v>
+        <v>25.69536014494162</v>
       </c>
       <c r="B76" t="n">
-        <v>-10.63154866728354</v>
+        <v>-208.3358434092324</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-136.0008771322451</v>
+        <v>30.68965881062787</v>
       </c>
       <c r="B77" t="n">
-        <v>-10.07782664515869</v>
+        <v>-207.65952348315</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-132.4566103138001</v>
+        <v>35.65832693111585</v>
       </c>
       <c r="B78" t="n">
-        <v>-9.528491772288731</v>
+        <v>-206.989230064279</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-128.9290785037396</v>
+        <v>40.60182622426154</v>
       </c>
       <c r="B79" t="n">
-        <v>-8.983464759011667</v>
+        <v>-206.3248378474373</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-125.418006422527</v>
+        <v>45.52053662298073</v>
       </c>
       <c r="B80" t="n">
-        <v>-8.442669532045443</v>
+        <v>-205.6662344398471</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-121.9231156099917</v>
+        <v>50.41487576148518</v>
       </c>
       <c r="B81" t="n">
-        <v>-7.906030431131626</v>
+        <v>-205.0133042029937</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-118.4441530359635</v>
+        <v>55.28522664043558</v>
       </c>
       <c r="B82" t="n">
-        <v>-7.373476574647526</v>
+        <v>-204.3659379002841</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-114.9808791902318</v>
+        <v>60.13198097199756</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.844939970931506</v>
+        <v>-203.7240268421633</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-111.5330298174594</v>
+        <v>64.955500164496</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.320349660515035</v>
+        <v>-203.0874680072956</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-108.1003566371361</v>
+        <v>69.75615950434731</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.799637927384509</v>
+        <v>-202.4561581339961</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-104.6826706784511</v>
+        <v>74.53430278233131</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.282746793542827</v>
+        <v>-201.8299996517392</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-101.2797032773329</v>
+        <v>79.29027834536969</v>
       </c>
       <c r="B87" t="n">
-        <v>-4.769606944401545</v>
+        <v>-201.2088958744636</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-97.89125257849723</v>
+        <v>84.02442076726636</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.260159888683063</v>
+        <v>-200.5927533589733</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-94.51710307019654</v>
+        <v>88.73707307253477</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.754345754081726</v>
+        <v>-199.9814789643698</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-91.15705884299217</v>
+        <v>93.42853489999726</v>
       </c>
       <c r="B90" t="n">
-        <v>-3.252108270569749</v>
+        <v>-199.3749865291211</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-87.8109293664577</v>
+        <v>98.0991515634325</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.753392600701545</v>
+        <v>-198.7731852915437</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-84.47848725570466</v>
+        <v>102.7492027858676</v>
       </c>
       <c r="B92" t="n">
-        <v>-2.258139050696997</v>
+        <v>-198.1759942238757</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-81.15957013530978</v>
+        <v>107.3790143567604</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.766298212518933</v>
+        <v>-197.5833275967166</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-77.85398065461597</v>
+        <v>111.9888537011079</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.277816063139738</v>
+        <v>-196.9951083516287</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-74.56153708607732</v>
+        <v>116.5790454070252</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.7926414742350119</v>
+        <v>-196.4112532849119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-71.28208050925906</v>
+        <v>121.1498294427346</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3107272249891366</v>
+        <v>-195.8316910868298</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-68.0154213507049</v>
+        <v>125.7015286259417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1679778762093065</v>
+        <v>-195.2563410138971</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-64.76138848901579</v>
+        <v>130.2343728867707</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6435217717245507</v>
+        <v>-194.6851351391231</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-61.5198292671662</v>
+        <v>134.7486560430086</v>
       </c>
       <c r="B99" t="n">
-        <v>1.115949198375461</v>
+        <v>-194.1179984839953</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-58.29059696873214</v>
+        <v>139.2446308021117</v>
       </c>
       <c r="B100" t="n">
-        <v>1.585303549617038</v>
+        <v>-193.5548622503376</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-55.07351607413662</v>
+        <v>143.7225411315425</v>
       </c>
       <c r="B101" t="n">
-        <v>2.051631923858054</v>
+        <v>-192.9956596850961</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-51.86844975472065</v>
+        <v>148.1826573617968</v>
       </c>
       <c r="B102" t="n">
-        <v>2.514975331488586</v>
+        <v>-192.440321679929</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-48.67522553360521</v>
+        <v>152.625222907533</v>
       </c>
       <c r="B103" t="n">
-        <v>2.975379480927984</v>
+        <v>-191.8887834044368</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-45.49373166633129</v>
+        <v>157.0504641574789</v>
       </c>
       <c r="B104" t="n">
-        <v>3.432880876136437</v>
+        <v>-191.3409830156041</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-42.32380709521293</v>
+        <v>161.4586268570087</v>
       </c>
       <c r="B105" t="n">
-        <v>3.887522700744142</v>
+        <v>-190.7968571249152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-39.16530778789841</v>
+        <v>165.8499386144054</v>
       </c>
       <c r="B106" t="n">
-        <v>4.339345254328208</v>
+        <v>-190.25634542317</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-36.0181174196087</v>
+        <v>170.2246328442211</v>
       </c>
       <c r="B107" t="n">
-        <v>4.788384468656147</v>
+        <v>-189.7193876968846</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-32.88208467692249</v>
+        <v>174.5829321522633</v>
       </c>
       <c r="B108" t="n">
-        <v>5.234680875655357</v>
+        <v>-189.185925852402</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-29.75709885109432</v>
+        <v>178.9250553357412</v>
       </c>
       <c r="B109" t="n">
-        <v>5.678268832730794</v>
+        <v>-188.6559030280279</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-26.6430120953419</v>
+        <v>183.2512157165432</v>
       </c>
       <c r="B110" t="n">
-        <v>6.119187595566217</v>
+        <v>-188.1292637746653</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-23.53971004679301</v>
+        <v>187.5616269436209</v>
       </c>
       <c r="B111" t="n">
-        <v>6.557471295656569</v>
+        <v>-187.605953328175</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-20.4470855715328</v>
+        <v>191.8565013500114</v>
       </c>
       <c r="B112" t="n">
-        <v>6.993152699556873</v>
+        <v>-187.085917793881</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-17.36499884934931</v>
+        <v>196.1360402639012</v>
       </c>
       <c r="B113" t="n">
-        <v>7.426268828722755</v>
+        <v>-186.569105298611</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-14.29332160643476</v>
+        <v>200.4004529426303</v>
       </c>
       <c r="B114" t="n">
-        <v>7.856854714831059</v>
+        <v>-186.0554636817906</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-11.2319812749792</v>
+        <v>204.6499143623267</v>
       </c>
       <c r="B115" t="n">
-        <v>8.284937257762095</v>
+        <v>-185.5449455588747</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-8.180827867878859</v>
+        <v>208.8846419414144</v>
       </c>
       <c r="B116" t="n">
-        <v>8.710553873032438</v>
+        <v>-185.0374990735505</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-5.139780498750533</v>
+        <v>213.1048078684424</v>
       </c>
       <c r="B117" t="n">
-        <v>9.133732000524475</v>
+        <v>-184.5330784158621</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-2.108696517351144</v>
+        <v>217.3106150015495</v>
       </c>
       <c r="B118" t="n">
-        <v>9.554507370400501</v>
+        <v>-184.0316347037337</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>0.9125153879997457</v>
+        <v>221.5022377713888</v>
       </c>
       <c r="B119" t="n">
-        <v>9.972908259968335</v>
+        <v>-183.533123036616</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>3.923955110931622</v>
+        <v>225.679852618443</v>
       </c>
       <c r="B120" t="n">
-        <v>10.38896385197518</v>
+        <v>-183.0374988354462</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6.925716450877659</v>
+        <v>229.8436611834628</v>
       </c>
       <c r="B121" t="n">
-        <v>10.80270220405271</v>
+        <v>-182.5447150934154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>9.917924998791431</v>
+        <v>233.9938232731534</v>
       </c>
       <c r="B122" t="n">
-        <v>11.2141554660829</v>
+        <v>-182.0547303058155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>12.90064745827598</v>
+        <v>238.1305070738432</v>
       </c>
       <c r="B123" t="n">
-        <v>11.62334740772118</v>
+        <v>-181.5675024928104</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>15.87400837448739</v>
+        <v>242.2538860666052</v>
       </c>
       <c r="B124" t="n">
-        <v>12.03030947443563</v>
+        <v>-181.0829895633525</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>18.8380968481184</v>
+        <v>246.3641276523549</v>
       </c>
       <c r="B125" t="n">
-        <v>12.43506797574153</v>
+        <v>-180.6011506445005</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>21.7930003849076</v>
+        <v>250.4613926644174</v>
       </c>
       <c r="B126" t="n">
-        <v>12.83764875131357</v>
+        <v>-180.1219461203357</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>24.73880473031061</v>
+        <v>254.5458508587721</v>
       </c>
       <c r="B127" t="n">
-        <v>13.23807715449615</v>
+        <v>-179.6453358082993</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>27.67561379963225</v>
+        <v>258.6176600046113</v>
       </c>
       <c r="B128" t="n">
-        <v>13.63638075837855</v>
+        <v>-179.1712813935159</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>30.60351582768323</v>
+        <v>262.6769743095559</v>
       </c>
       <c r="B129" t="n">
-        <v>14.03258475606665</v>
+        <v>-178.699745426449</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>33.5226004511908</v>
+        <v>266.7239353361954</v>
       </c>
       <c r="B130" t="n">
-        <v>14.42671429187453</v>
+        <v>-178.2306923613511</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>36.43293419085444</v>
+        <v>270.7587149455091</v>
       </c>
       <c r="B131" t="n">
-        <v>14.81879116315326</v>
+        <v>-177.7640835710505</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>39.33462293716723</v>
+        <v>274.7814542730651</v>
       </c>
       <c r="B132" t="n">
-        <v>15.20884224798664</v>
+        <v>-177.2998844113555</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>42.22774131439917</v>
+        <v>278.7922893914447</v>
       </c>
       <c r="B133" t="n">
-        <v>15.59688998626322</v>
+        <v>-176.8380612226668</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45.11237892557497</v>
+        <v>282.7913799877319</v>
       </c>
       <c r="B134" t="n">
-        <v>15.98295861124194</v>
+        <v>-176.378578024848</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>47.98860783468128</v>
+        <v>286.7788673697694</v>
       </c>
       <c r="B135" t="n">
-        <v>16.36706979280387</v>
+        <v>-175.9214013483007</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>50.85651515450252</v>
+        <v>290.7548753246294</v>
       </c>
       <c r="B136" t="n">
-        <v>16.74924700362769</v>
+        <v>-175.4665001060835</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>53.71616302987272</v>
+        <v>294.7195687719632</v>
       </c>
       <c r="B137" t="n">
-        <v>17.1295101849515</v>
+        <v>-175.0138388763871</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>56.5676591922741</v>
+        <v>298.6730587992673</v>
       </c>
       <c r="B138" t="n">
-        <v>17.50788513685569</v>
+        <v>-174.5633887531991</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>59.411048129678</v>
+        <v>302.6154863111994</v>
       </c>
       <c r="B139" t="n">
-        <v>17.88438906166527</v>
+        <v>-174.1151177748873</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>62.24643270831489</v>
+        <v>306.5469898144007</v>
       </c>
       <c r="B140" t="n">
-        <v>18.25904670856335</v>
+        <v>-173.6689946043753</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>65.07386012320299</v>
+        <v>310.4676896667607</v>
       </c>
       <c r="B141" t="n">
-        <v>18.63187527241078</v>
+        <v>-173.2249903018086</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>67.8934236019588</v>
+        <v>314.3777201596346</v>
       </c>
       <c r="B142" t="n">
-        <v>19.00289784181513</v>
+        <v>-172.7830746754985</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>70.70518125463005</v>
+        <v>318.2772028937355</v>
       </c>
       <c r="B143" t="n">
-        <v>19.37213269345682</v>
+        <v>-172.3432192917729</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>73.50921920031394</v>
+        <v>322.1662608928137</v>
       </c>
       <c r="B144" t="n">
-        <v>19.73960160620982</v>
+        <v>-171.9053958677094</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>76.30558797103451</v>
+        <v>326.0450240762627</v>
       </c>
       <c r="B145" t="n">
-        <v>20.1053215171946</v>
+        <v>-171.4695756527582</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>79.09437454842077</v>
+        <v>329.9136034088064</v>
       </c>
       <c r="B146" t="n">
-        <v>20.46931396397702</v>
+        <v>-171.0357323268155</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>81.87564289491846</v>
+        <v>333.7721265818602</v>
       </c>
       <c r="B147" t="n">
-        <v>20.83159730037841</v>
+        <v>-170.6038379844301</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>84.64944283102378</v>
+        <v>337.6206981931005</v>
       </c>
       <c r="B148" t="n">
-        <v>21.19218788173288</v>
+        <v>-170.1738675919177</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>87.41586882553059</v>
+        <v>341.4594403352029</v>
       </c>
       <c r="B149" t="n">
-        <v>21.55110770511382</v>
+        <v>-169.7457944360957</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>90.17495683094219</v>
+        <v>345.2884704479746</v>
       </c>
       <c r="B150" t="n">
-        <v>21.9083710090807</v>
+        <v>-169.3195926004411</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>92.92680214107919</v>
+        <v>349.1078896705382</v>
       </c>
       <c r="B151" t="n">
-        <v>22.26399956637141</v>
+        <v>-168.8952382482923</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>95.67144110776511</v>
+        <v>352.9178092940315</v>
       </c>
       <c r="B152" t="n">
-        <v>22.61800736953617</v>
+        <v>-168.4727066706479</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>98.40895785756283</v>
+        <v>356.7183432412424</v>
       </c>
       <c r="B153" t="n">
-        <v>22.97041443137806</v>
+        <v>-168.0519731236174</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>101.1393891184697</v>
+        <v>360.5096001396786</v>
       </c>
       <c r="B154" t="n">
-        <v>23.32123451090749</v>
+        <v>-167.6330137016665</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>103.8628231067053</v>
+        <v>364.2916798788474</v>
       </c>
       <c r="B155" t="n">
-        <v>23.67048784274451</v>
+        <v>-167.2158057074137</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>106.5792967383461</v>
+        <v>368.0646878357308</v>
       </c>
       <c r="B156" t="n">
-        <v>24.01818793199743</v>
+        <v>-166.8003260737987</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>109.2888920593529</v>
+        <v>371.8287215533352</v>
       </c>
       <c r="B157" t="n">
-        <v>24.36435392616872</v>
+        <v>-166.3865528283681</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>111.9916549354346</v>
+        <v>375.5838843116349</v>
       </c>
       <c r="B158" t="n">
-        <v>24.70900020403593</v>
+        <v>-165.9744635938234</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>114.6876452773821</v>
+        <v>379.3302847106367</v>
       </c>
       <c r="B159" t="n">
-        <v>25.05214280731579</v>
+        <v>-165.5640356351155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>117.3769093423247</v>
+        <v>383.0680079034917</v>
       </c>
       <c r="B160" t="n">
-        <v>25.39379590997987</v>
+        <v>-165.1552490039476</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>120.0595186396056</v>
+        <v>386.7971454444943</v>
       </c>
       <c r="B161" t="n">
-        <v>25.73397676499096</v>
+        <v>-164.7480832572587</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>122.7355368351034</v>
+        <v>390.5178071955276</v>
       </c>
       <c r="B162" t="n">
-        <v>26.07270149124324</v>
+        <v>-164.3425161627707</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>125.4049972493351</v>
+        <v>394.2300865289109</v>
       </c>
       <c r="B163" t="n">
-        <v>26.40998224395241</v>
+        <v>-163.9385274955024</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>128.0679717403196</v>
+        <v>397.9340635006657</v>
       </c>
       <c r="B164" t="n">
-        <v>26.74583593053862</v>
+        <v>-163.5360986749728</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>130.7245059722375</v>
+        <v>401.6298371707234</v>
       </c>
       <c r="B165" t="n">
-        <v>27.08027602639146</v>
+        <v>-163.1352092471473</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>133.3746581638967</v>
+        <v>405.3174829503225</v>
       </c>
       <c r="B166" t="n">
-        <v>27.41331747114873</v>
+        <v>-162.7358415132875</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>136.0184717056045</v>
+        <v>408.9971174702775</v>
       </c>
       <c r="B167" t="n">
-        <v>27.74497322405037</v>
+        <v>-162.3379734978749</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>138.6559986544151</v>
+        <v>412.6688031716923</v>
       </c>
       <c r="B168" t="n">
-        <v>28.07525722142648</v>
+        <v>-161.9415892725998</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>141.2873176399989</v>
+        <v>416.3326302111098</v>
       </c>
       <c r="B169" t="n">
-        <v>28.40418660488774</v>
+        <v>-161.5466700858125</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>143.9124501891376</v>
+        <v>419.9886867556547</v>
       </c>
       <c r="B170" t="n">
-        <v>28.73177126130884</v>
+        <v>-161.153197577341</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>146.5314486773265</v>
+        <v>423.6370564106192</v>
       </c>
       <c r="B171" t="n">
-        <v>29.05802483293891</v>
+        <v>-160.7611540500574</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>149.1443738003261</v>
+        <v>427.2778211087427</v>
       </c>
       <c r="B172" t="n">
-        <v>29.38296188616107</v>
+        <v>-160.3705221534752</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>151.7512707737611</v>
+        <v>430.9110679862848</v>
       </c>
       <c r="B173" t="n">
-        <v>29.70659495186737</v>
+        <v>-159.9812841435029</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>154.3521932568009</v>
+        <v>434.5368618918988</v>
       </c>
       <c r="B174" t="n">
-        <v>30.02893750565761</v>
+        <v>-159.593424822459</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>156.9471882149962</v>
+        <v>438.1552957544953</v>
       </c>
       <c r="B175" t="n">
-        <v>30.35000208898924</v>
+        <v>-159.2069261427201</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>159.5362925265719</v>
+        <v>441.7664431797688</v>
       </c>
       <c r="B176" t="n">
-        <v>30.66979989861295</v>
+        <v>-158.8217722784815</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>162.1195496321736</v>
+        <v>445.3703708671885</v>
       </c>
       <c r="B177" t="n">
-        <v>30.98834284952846</v>
+        <v>-158.4379482865903</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>164.6970342862554</v>
+        <v>448.9671750555713</v>
       </c>
       <c r="B178" t="n">
-        <v>31.3056466138616</v>
+        <v>-158.0554362257182</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>167.2687701601294</v>
+        <v>452.5569093999481</v>
       </c>
       <c r="B179" t="n">
-        <v>31.62172047182634</v>
+        <v>-157.6742228301611</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>169.8348042158358</v>
+        <v>456.1396512535589</v>
       </c>
       <c r="B180" t="n">
-        <v>31.93657648291779</v>
+        <v>-157.2942924513238</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>172.3951921551935</v>
+        <v>459.7154841073787</v>
       </c>
       <c r="B181" t="n">
-        <v>32.25022768244872</v>
+        <v>-156.9156289315931</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>174.9499633869549</v>
+        <v>463.2844696378712</v>
       </c>
       <c r="B182" t="n">
-        <v>32.56268379289276</v>
+        <v>-156.5382185603565</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>177.499179321921</v>
+        <v>466.8466841796261</v>
       </c>
       <c r="B183" t="n">
-        <v>32.87395836341022</v>
+        <v>-156.1620462068531</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>180.0428667624007</v>
+        <v>470.4021928011937</v>
       </c>
       <c r="B184" t="n">
-        <v>33.18406062549735</v>
+        <v>-155.7870980607182</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>182.5810909639292</v>
+        <v>473.9510645753182</v>
       </c>
       <c r="B185" t="n">
-        <v>33.49300441351005</v>
+        <v>-155.4133600146913</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185.1138647088852</v>
+        <v>477.4933658963777</v>
       </c>
       <c r="B186" t="n">
-        <v>33.80079708755738</v>
+        <v>-155.0408183677846</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>187.641245722107</v>
+        <v>481.0291687687882</v>
       </c>
       <c r="B187" t="n">
-        <v>34.10745139524295</v>
+        <v>-154.6694589514481</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>190.1632927906457</v>
+        <v>484.5585350985593</v>
       </c>
       <c r="B188" t="n">
-        <v>34.41298011812708</v>
+        <v>-154.2992687780675</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>192.6800226008839</v>
+        <v>488.0815305880288</v>
       </c>
       <c r="B189" t="n">
-        <v>34.71739085521853</v>
+        <v>-153.9302345774988</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>195.191484835613</v>
+        <v>491.5982190630431</v>
       </c>
       <c r="B190" t="n">
-        <v>35.0206951257089</v>
+        <v>-153.5623433908966</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>197.697723561542</v>
+        <v>495.1086644351662</v>
       </c>
       <c r="B191" t="n">
-        <v>35.32290368666446</v>
+        <v>-153.1955823627277</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>200.1987680049585</v>
+        <v>498.612922511305</v>
       </c>
       <c r="B192" t="n">
-        <v>35.62402542947956</v>
+        <v>-152.8299395930938</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>202.6946698609785</v>
+        <v>502.1110602776631</v>
       </c>
       <c r="B193" t="n">
-        <v>35.92407187611272</v>
+        <v>-152.4654021223059</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>205.1854589074323</v>
+        <v>505.6031383537768</v>
       </c>
       <c r="B194" t="n">
-        <v>36.22305183568903</v>
+        <v>-152.1019577615805</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>207.6711828365425</v>
+        <v>509.089218668341</v>
       </c>
       <c r="B195" t="n">
-        <v>36.52097619562716</v>
+        <v>-151.7395942897773</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>210.1518805064794</v>
+        <v>512.5693515650913</v>
       </c>
       <c r="B196" t="n">
-        <v>36.81785470767767</v>
+        <v>-151.3783007903919</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>212.6275810354394</v>
+        <v>516.0436095300552</v>
       </c>
       <c r="B197" t="n">
-        <v>37.11369588852341</v>
+        <v>-151.0180641475802</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>215.0983338864433</v>
+        <v>519.5120390791237</v>
       </c>
       <c r="B198" t="n">
-        <v>37.40851061630349</v>
+        <v>-150.6588740382118</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>217.564157946647</v>
+        <v>522.9746941888277</v>
       </c>
       <c r="B199" t="n">
-        <v>37.70230605098357</v>
+        <v>-150.3007194580811</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>220.0251161859767</v>
+        <v>526.4316387024681</v>
       </c>
       <c r="B200" t="n">
-        <v>37.99509453769372</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>222.4812268443102</v>
-      </c>
-      <c r="B201" t="n">
-        <v>38.28688302600682</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>224.9325300531457</v>
-      </c>
-      <c r="B202" t="n">
-        <v>38.57768100681918</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>227.3790639598205</v>
-      </c>
-      <c r="B203" t="n">
-        <v>38.86749766805599</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>229.8208600980541</v>
-      </c>
-      <c r="B204" t="n">
-        <v>39.15634134990296</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>232.2579652816601</v>
-      </c>
-      <c r="B205" t="n">
-        <v>39.44422213543928</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>234.6903934916068</v>
-      </c>
-      <c r="B206" t="n">
-        <v>39.73114616734551</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>237.1182001052315</v>
-      </c>
-      <c r="B207" t="n">
-        <v>40.01712441332216</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>239.5414153330668</v>
-      </c>
-      <c r="B208" t="n">
-        <v>40.30216480842506</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>241.9600571665101</v>
-      </c>
-      <c r="B209" t="n">
-        <v>40.58627379626307</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>244.3741783640036</v>
-      </c>
-      <c r="B210" t="n">
-        <v>40.8694618473908</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>246.7838036467551</v>
-      </c>
-      <c r="B211" t="n">
-        <v>41.15173607985724</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>249.1889653242699</v>
-      </c>
-      <c r="B212" t="n">
-        <v>41.43310444715991</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>251.5897060741655</v>
-      </c>
-      <c r="B213" t="n">
-        <v>41.71357605735588</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>253.9860377883181</v>
-      </c>
-      <c r="B214" t="n">
-        <v>41.99315636737109</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>256.3780118061705</v>
-      </c>
-      <c r="B215" t="n">
-        <v>42.27185538537589</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>258.7656528929257</v>
-      </c>
-      <c r="B216" t="n">
-        <v>42.54967996357874</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>261.1489919684758</v>
-      </c>
-      <c r="B217" t="n">
-        <v>42.82663762017668</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>263.5280624028141</v>
-      </c>
-      <c r="B218" t="n">
-        <v>43.10273610554526</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>265.9028950901512</v>
-      </c>
-      <c r="B219" t="n">
-        <v>43.37798283042147</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>268.2735137903711</v>
-      </c>
-      <c r="B220" t="n">
-        <v>43.65238432947584</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>270.6399627572941</v>
-      </c>
-      <c r="B221" t="n">
-        <v>43.92594945900476</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>273.0022546379957</v>
-      </c>
-      <c r="B222" t="n">
-        <v>44.19868337092339</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>275.3604383127424</v>
-      </c>
-      <c r="B223" t="n">
-        <v>44.47059535402249</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>277.7145247911581</v>
-      </c>
-      <c r="B224" t="n">
-        <v>44.7416902795552</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>280.0645514011281</v>
-      </c>
-      <c r="B225" t="n">
-        <v>45.0119760073639</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>282.4105498784156</v>
-      </c>
-      <c r="B226" t="n">
-        <v>45.28145970404469</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>284.7525512034301</v>
-      </c>
-      <c r="B227" t="n">
-        <v>45.55014840209455</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>287.0905721507867</v>
-      </c>
-      <c r="B228" t="n">
-        <v>45.81804746073078</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>289.4246481233209</v>
-      </c>
-      <c r="B229" t="n">
-        <v>46.08516433170755</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>291.7548144234514</v>
-      </c>
-      <c r="B230" t="n">
-        <v>46.35150640724481</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>294.0810795444797</v>
-      </c>
-      <c r="B231" t="n">
-        <v>46.6170779733788</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>296.4034876393523</v>
-      </c>
-      <c r="B232" t="n">
-        <v>46.88188734762207</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>298.7220665072102</v>
-      </c>
-      <c r="B233" t="n">
-        <v>47.1459409347512</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>301.0368265276322</v>
-      </c>
-      <c r="B234" t="n">
-        <v>47.40924311740577</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>303.3478121472127</v>
-      </c>
-      <c r="B235" t="n">
-        <v>47.6718021144178</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>305.655041791193</v>
-      </c>
-      <c r="B236" t="n">
-        <v>47.93362314349952</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>307.9585404835648</v>
-      </c>
-      <c r="B237" t="n">
-        <v>48.19471213434963</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>310.2583354813619</v>
-      </c>
-      <c r="B238" t="n">
-        <v>48.45507523067471</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>312.5544577783339</v>
-      </c>
-      <c r="B239" t="n">
-        <v>48.71471895906521</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>314.8469242006403</v>
-      </c>
-      <c r="B240" t="n">
-        <v>48.97364820589445</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>317.1357644169303</v>
-      </c>
-      <c r="B241" t="n">
-        <v>49.23186927243768</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>319.4210035646142</v>
-      </c>
-      <c r="B242" t="n">
-        <v>49.48938791021865</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>321.7026654007137</v>
-      </c>
-      <c r="B243" t="n">
-        <v>49.74620967880642</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>323.9807724699985</v>
-      </c>
-      <c r="B244" t="n">
-        <v>50.00233996597908</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>326.2553599585481</v>
-      </c>
-      <c r="B245" t="n">
-        <v>50.25778554380241</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>328.5264382490335</v>
-      </c>
-      <c r="B246" t="n">
-        <v>50.51255036292264</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>330.7940410322378</v>
-      </c>
-      <c r="B247" t="n">
-        <v>50.76664095654093</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>333.0581794496345</v>
-      </c>
-      <c r="B248" t="n">
-        <v>51.02006129631411</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>335.3188962244183</v>
-      </c>
-      <c r="B249" t="n">
-        <v>51.27281885544284</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>337.5762001002515</v>
-      </c>
-      <c r="B250" t="n">
-        <v>51.52491727162632</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>339.8301154423097</v>
-      </c>
-      <c r="B251" t="n">
-        <v>51.77636189868139</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>342.0806747885135</v>
-      </c>
-      <c r="B252" t="n">
-        <v>52.02715896769902</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>344.3278845937755</v>
-      </c>
-      <c r="B253" t="n">
-        <v>52.27731177128868</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>346.5717889253458</v>
-      </c>
-      <c r="B254" t="n">
-        <v>52.52682775850974</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>348.8123881941766</v>
-      </c>
-      <c r="B255" t="n">
-        <v>52.7757094904033</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>351.0497179912356</v>
-      </c>
-      <c r="B256" t="n">
-        <v>53.0239634092444</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>353.2838000845751</v>
-      </c>
-      <c r="B257" t="n">
-        <v>53.27159438935405</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>355.5146458700768</v>
-      </c>
-      <c r="B258" t="n">
-        <v>53.51860612744619</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>357.7422901336407</v>
-      </c>
-      <c r="B259" t="n">
-        <v>53.76500488140408</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>359.9667468033045</v>
-      </c>
-      <c r="B260" t="n">
-        <v>54.01079457047163</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>362.1880319483004</v>
-      </c>
-      <c r="B261" t="n">
-        <v>54.25597932487787</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>364.4061792396927</v>
-      </c>
-      <c r="B262" t="n">
-        <v>54.50056518876744</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>366.6212132857471</v>
-      </c>
-      <c r="B263" t="n">
-        <v>54.74455717485142</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>368.8331251989821</v>
-      </c>
-      <c r="B264" t="n">
-        <v>54.98795658262296</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>371.041968098467</v>
-      </c>
-      <c r="B265" t="n">
-        <v>55.23077151043401</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>373.2477438574379</v>
-      </c>
-      <c r="B266" t="n">
-        <v>55.47300439042033</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>375.4504787676269</v>
-      </c>
-      <c r="B267" t="n">
-        <v>55.7146603139482</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>377.6501875271701</v>
-      </c>
-      <c r="B268" t="n">
-        <v>55.95574307354224</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>379.8469056676726</v>
-      </c>
-      <c r="B269" t="n">
-        <v>56.19625871812593</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>382.040634718514</v>
-      </c>
-      <c r="B270" t="n">
-        <v>56.43620954701464</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>384.2314010650135</v>
-      </c>
-      <c r="B271" t="n">
-        <v>56.67560055695603</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>386.4192244665331</v>
-      </c>
-      <c r="B272" t="n">
-        <v>56.91443599394614</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>388.6041229073313</v>
-      </c>
-      <c r="B273" t="n">
-        <v>57.15271988581154</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>390.7861252290634</v>
-      </c>
-      <c r="B274" t="n">
-        <v>57.39045741908984</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>392.965232011035</v>
-      </c>
-      <c r="B275" t="n">
-        <v>57.62765067749052</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>395.1414739367303</v>
-      </c>
-      <c r="B276" t="n">
-        <v>57.86430500090501</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>397.3148601150503</v>
-      </c>
-      <c r="B277" t="n">
-        <v>58.10042335821245</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>399.4854170402808</v>
-      </c>
-      <c r="B278" t="n">
-        <v>58.33601058530093</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>401.6531718559511</v>
-      </c>
-      <c r="B279" t="n">
-        <v>58.57107156242597</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>403.8181232355242</v>
-      </c>
-      <c r="B280" t="n">
-        <v>58.80560806104265</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>405.9802970759467</v>
-      </c>
-      <c r="B281" t="n">
-        <v>59.03962478347535</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>408.1397120428952</v>
-      </c>
-      <c r="B282" t="n">
-        <v>59.27312562544651</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>410.2963924050523</v>
-      </c>
-      <c r="B283" t="n">
-        <v>59.50611506581572</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>412.4503429658284</v>
-      </c>
-      <c r="B284" t="n">
-        <v>59.73859545959178</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>414.6015841670525</v>
-      </c>
-      <c r="B285" t="n">
-        <v>59.97057083139089</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>416.7501415102981</v>
-      </c>
-      <c r="B286" t="n">
-        <v>60.20204572873607</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>418.8960210776605</v>
-      </c>
-      <c r="B287" t="n">
-        <v>60.43302258612914</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>421.03924723442</v>
-      </c>
-      <c r="B288" t="n">
-        <v>60.66350578743194</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>423.1798329081385</v>
-      </c>
-      <c r="B289" t="n">
-        <v>60.89349846530905</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>425.3177996239903</v>
-      </c>
-      <c r="B290" t="n">
-        <v>61.12300465673047</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>427.4531581804237</v>
-      </c>
-      <c r="B291" t="n">
-        <v>61.35202722739027</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>429.5859316359476</v>
-      </c>
-      <c r="B292" t="n">
-        <v>61.58057033912115</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>431.7161225781058</v>
-      </c>
-      <c r="B293" t="n">
-        <v>61.80863594153107</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>433.8437600546851</v>
-      </c>
-      <c r="B294" t="n">
-        <v>62.03622879981779</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>435.9688616664137</v>
-      </c>
-      <c r="B295" t="n">
-        <v>62.26335243294537</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>438.0914292978539</v>
-      </c>
-      <c r="B296" t="n">
-        <v>62.49000866350514</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>440.2114894411822</v>
-      </c>
-      <c r="B297" t="n">
-        <v>62.71620192548886</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>442.3290539630268</v>
-      </c>
-      <c r="B298" t="n">
-        <v>62.94193507267929</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>444.4441403824511</v>
-      </c>
-      <c r="B299" t="n">
-        <v>63.16721154439287</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>446.5567599613329</v>
-      </c>
-      <c r="B300" t="n">
-        <v>63.39203409620995</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>448.6669341385415</v>
-      </c>
-      <c r="B301" t="n">
-        <v>63.61640654965208</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>450.774674906692</v>
-      </c>
-      <c r="B302" t="n">
-        <v>63.84033170390092</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>452.8799962878217</v>
-      </c>
-      <c r="B303" t="n">
-        <v>64.06381255782296</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>454.9829130629338</v>
-      </c>
-      <c r="B304" t="n">
-        <v>64.28685217453017</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>457.0834406638531</v>
-      </c>
-      <c r="B305" t="n">
-        <v>64.50945366974608</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>459.1815926167037</v>
-      </c>
-      <c r="B306" t="n">
-        <v>64.73161994108935</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>461.2773870233124</v>
-      </c>
-      <c r="B307" t="n">
-        <v>64.95335435450829</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>463.3708298844325</v>
-      </c>
-      <c r="B308" t="n">
-        <v>65.17465898021899</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>465.461938332489</v>
-      </c>
-      <c r="B309" t="n">
-        <v>65.39553705107707</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>467.5507349576617</v>
-      </c>
-      <c r="B310" t="n">
-        <v>65.61599235934844</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>469.6372303161179</v>
-      </c>
-      <c r="B311" t="n">
-        <v>65.83602741067227</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>471.7214336024674</v>
-      </c>
-      <c r="B312" t="n">
-        <v>66.05564455344944</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>473.8033520360213</v>
-      </c>
-      <c r="B313" t="n">
-        <v>66.2748459149461</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>475.8830176711227</v>
-      </c>
-      <c r="B314" t="n">
-        <v>66.49363622168818</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>477.9604277231791</v>
-      </c>
-      <c r="B315" t="n">
-        <v>66.71201651873523</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>480.0356047813542</v>
-      </c>
-      <c r="B316" t="n">
-        <v>66.9299905064496</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>482.1085589142247</v>
-      </c>
-      <c r="B317" t="n">
-        <v>67.14756055444812</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>484.1793028264844</v>
-      </c>
-      <c r="B318" t="n">
-        <v>67.36472929582089</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>486.2478461018933</v>
-      </c>
-      <c r="B319" t="n">
-        <v>67.58149902311112</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>488.3142124132015</v>
-      </c>
-      <c r="B320" t="n">
-        <v>67.79787349110325</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>490.3784063101662</v>
-      </c>
-      <c r="B321" t="n">
-        <v>68.01385443757573</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>492.4404437266592</v>
-      </c>
-      <c r="B322" t="n">
-        <v>68.22944477946953</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>494.5003329336581</v>
-      </c>
-      <c r="B323" t="n">
-        <v>68.44464661932531</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>496.5580914715204</v>
-      </c>
-      <c r="B324" t="n">
-        <v>68.6594630153939</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>498.6137263303827</v>
-      </c>
-      <c r="B325" t="n">
-        <v>68.87389591140322</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>500.6672577546502</v>
-      </c>
-      <c r="B326" t="n">
-        <v>69.08794862118324</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>502.7186937044413</v>
-      </c>
-      <c r="B327" t="n">
-        <v>69.30162316454704</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>504.7680446761051</v>
-      </c>
-      <c r="B328" t="n">
-        <v>69.51492181414858</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>506.8153226772216</v>
-      </c>
-      <c r="B329" t="n">
-        <v>69.72784698804074</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>508.8605404004953</v>
-      </c>
-      <c r="B330" t="n">
-        <v>69.94040116338098</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>510.9037166269148</v>
-      </c>
-      <c r="B331" t="n">
-        <v>70.15258743720233</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>512.9448561244976</v>
-      </c>
-      <c r="B332" t="n">
-        <v>70.36440743896938</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>514.9839657986156</v>
-      </c>
-      <c r="B333" t="n">
-        <v>70.57586301016607</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>517.0210672302898</v>
-      </c>
-      <c r="B334" t="n">
-        <v>70.78695750238717</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>519.0561706395558</v>
-      </c>
-      <c r="B335" t="n">
-        <v>70.99769307683118</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>521.0892789517707</v>
-      </c>
-      <c r="B336" t="n">
-        <v>71.20807112926539</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>523.1204139174296</v>
-      </c>
-      <c r="B337" t="n">
-        <v>71.41809499269641</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>525.1495797382164</v>
-      </c>
-      <c r="B338" t="n">
-        <v>71.62776617339983</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>527.1767906280155</v>
-      </c>
-      <c r="B339" t="n">
-        <v>71.83708720228407</v>
+        <v>-149.9435884767612</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_40.xlsx
+++ b/Phase_distribution_40.xlsx
@@ -440,1594 +440,1594 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-527.3666513385953</v>
+        <v>-526.4339260313019</v>
       </c>
       <c r="B2" t="n">
-        <v>-304.7751053515213</v>
+        <v>-249.2638884045213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-509.9942278109555</v>
+        <v>-509.1405807743475</v>
       </c>
       <c r="B3" t="n">
-        <v>-300.9909184857372</v>
+        <v>-245.4993105486969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-494.0108664498225</v>
+        <v>-493.2210543278782</v>
       </c>
       <c r="B4" t="n">
-        <v>-297.5510447484762</v>
+        <v>-242.0752549650506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-479.1585686228701</v>
+        <v>-478.4212500010859</v>
       </c>
       <c r="B5" t="n">
-        <v>-294.3914309723054</v>
+        <v>-238.9286489188733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-465.244042677803</v>
+        <v>-464.5506468598391</v>
       </c>
       <c r="B6" t="n">
-        <v>-291.4642197524058</v>
+        <v>-236.0123253778607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-452.1190510043985</v>
+        <v>-451.4628853573752</v>
       </c>
       <c r="B7" t="n">
-        <v>-288.7327914633772</v>
+        <v>-233.2901342489345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-439.6673456340229</v>
+        <v>-439.0431483571489</v>
       </c>
       <c r="B8" t="n">
-        <v>-286.1684926323712</v>
+        <v>-230.7337761019807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-427.796422700384</v>
+        <v>-427.1999900775857</v>
       </c>
       <c r="B9" t="n">
-        <v>-283.7485557560343</v>
+        <v>-228.320744527609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-416.4314621762791</v>
+        <v>-415.8592713361713</v>
       </c>
       <c r="B10" t="n">
-        <v>-281.4545901634226</v>
+        <v>-226.0328217703866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-405.5110457622173</v>
+        <v>-404.9603137698872</v>
       </c>
       <c r="B11" t="n">
-        <v>-279.2715193654375</v>
+        <v>-223.8551077941117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-394.9844090202708</v>
+        <v>-394.4526757809883</v>
       </c>
       <c r="B12" t="n">
-        <v>-277.1868842199841</v>
+        <v>-221.7752299299514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-384.8088534151183</v>
+        <v>-384.2941794270938</v>
       </c>
       <c r="B13" t="n">
-        <v>-275.1902180215498</v>
+        <v>-219.782842511136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-374.9484695966865</v>
+        <v>-374.4490861484809</v>
       </c>
       <c r="B14" t="n">
-        <v>-273.272710669594</v>
+        <v>-217.8691837455183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-365.3725132855076</v>
+        <v>-364.8870456199379</v>
       </c>
       <c r="B15" t="n">
-        <v>-271.4268249322512</v>
+        <v>-216.0268053015706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-356.0546982485595</v>
+        <v>-355.5818826869706</v>
       </c>
       <c r="B16" t="n">
-        <v>-269.6461078131217</v>
+        <v>-214.2492857922101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-346.9722573744222</v>
+        <v>-346.5109681744322</v>
       </c>
       <c r="B17" t="n">
-        <v>-267.9249682383233</v>
+        <v>-212.5310694208322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-338.1054056205831</v>
+        <v>-337.6547637949596</v>
       </c>
       <c r="B18" t="n">
-        <v>-266.2585414075003</v>
+        <v>-210.8673455779699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-329.436848699732</v>
+        <v>-328.9959655709807</v>
       </c>
       <c r="B19" t="n">
-        <v>-264.642568537065</v>
+        <v>-209.2538600978471</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-320.95137289103</v>
+        <v>-320.5194967018657</v>
       </c>
       <c r="B20" t="n">
-        <v>-263.0732975276717</v>
+        <v>-207.686892160151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-312.6355143348552</v>
+        <v>-312.2120612131366</v>
       </c>
       <c r="B21" t="n">
-        <v>-261.5474030002459</v>
+        <v>-206.1631521886654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-304.4773645666846</v>
+        <v>-304.0617377391433</v>
       </c>
       <c r="B22" t="n">
-        <v>-260.0619348686865</v>
+        <v>-204.6796918905334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-296.46631866734</v>
+        <v>-296.0579855161305</v>
       </c>
       <c r="B23" t="n">
-        <v>-258.6142590252358</v>
+        <v>-203.2338926545739</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-288.5928509185436</v>
+        <v>-288.1913635474653</v>
       </c>
       <c r="B24" t="n">
-        <v>-257.202005680194</v>
+        <v>-201.8234033092702</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-280.8484144901499</v>
+        <v>-280.453356048537</v>
       </c>
       <c r="B25" t="n">
-        <v>-255.8230420424338</v>
+        <v>-200.4460995379753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-273.2253561780332</v>
+        <v>-272.8363366673292</v>
       </c>
       <c r="B26" t="n">
-        <v>-254.4754488865725</v>
+        <v>-199.1000695358271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-265.7166806058992</v>
+        <v>-265.333360317613</v>
       </c>
       <c r="B27" t="n">
-        <v>-253.1574718394529</v>
+        <v>-197.7835701830739</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-258.3161164140629</v>
+        <v>-257.9382141375989</v>
       </c>
       <c r="B28" t="n">
-        <v>-251.8675272014095</v>
+        <v>-196.4950300879075</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-251.0179255310152</v>
+        <v>-250.6451333089627</v>
       </c>
       <c r="B29" t="n">
-        <v>-250.6041632375947</v>
+        <v>-195.2329947425746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-243.8168660133905</v>
+        <v>-243.4489280493665</v>
       </c>
       <c r="B30" t="n">
-        <v>-249.3660493910692</v>
+        <v>-193.996144369247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-236.7081621182838</v>
+        <v>-236.3448444246867</v>
       </c>
       <c r="B31" t="n">
-        <v>-248.1519671807986</v>
+        <v>-192.7832657770417</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-229.6874013301913</v>
+        <v>-229.3285149839998</v>
       </c>
       <c r="B32" t="n">
-        <v>-246.9607891286415</v>
+        <v>-191.59324054144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-222.7506064410126</v>
+        <v>-222.3959155864984</v>
       </c>
       <c r="B33" t="n">
-        <v>-245.791487938127</v>
+        <v>-190.4250347013273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-215.8940090376885</v>
+        <v>-215.5433799714392</v>
       </c>
       <c r="B34" t="n">
-        <v>-244.6430954877013</v>
+        <v>-189.2776985040861</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-209.1142507143248</v>
+        <v>-208.767468772483</v>
       </c>
       <c r="B35" t="n">
-        <v>-243.5147343551931</v>
+        <v>-188.1503420351314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-202.4081019203196</v>
+        <v>-202.0650341969947</v>
       </c>
       <c r="B36" t="n">
-        <v>-242.405568642152</v>
+        <v>-187.0421440221325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-195.7726269710354</v>
+        <v>-195.4331185987315</v>
       </c>
       <c r="B37" t="n">
-        <v>-241.3148297412187</v>
+        <v>-185.9523331116711</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-189.2051467603617</v>
+        <v>-188.8690407272937</v>
       </c>
       <c r="B38" t="n">
-        <v>-240.2418082184182</v>
+        <v>-184.8802003990806</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-182.7030385192697</v>
+        <v>-182.3702546642298</v>
       </c>
       <c r="B39" t="n">
-        <v>-239.1858196161646</v>
+        <v>-183.8250747222174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-176.2639982290257</v>
+        <v>-175.9343899818407</v>
       </c>
       <c r="B40" t="n">
-        <v>-238.1462459495187</v>
+        <v>-182.7863280040531</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-169.8857734718117</v>
+        <v>-169.5592413070059</v>
       </c>
       <c r="B41" t="n">
-        <v>-237.1224910038214</v>
+        <v>-181.7633723181261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-163.566295588466</v>
+        <v>-163.2427493299429</v>
       </c>
       <c r="B42" t="n">
-        <v>-236.1140007287263</v>
+        <v>-180.7556557019529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-157.3036410617164</v>
+        <v>-156.982955765896</v>
       </c>
       <c r="B43" t="n">
-        <v>-235.1202559169885</v>
+        <v>-179.7626539999677</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-151.0959640125903</v>
+        <v>-150.778060504197</v>
       </c>
       <c r="B44" t="n">
-        <v>-234.140760593326</v>
+        <v>-178.7838790603211</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-144.9415515651355</v>
+        <v>-144.6263571818742</v>
       </c>
       <c r="B45" t="n">
-        <v>-233.1750500207252</v>
+        <v>-177.818867645519</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-138.83879030175</v>
+        <v>-138.526196173977</v>
       </c>
       <c r="B46" t="n">
-        <v>-232.2226846102534</v>
+        <v>-176.8671749793735</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-132.7861439710826</v>
+        <v>-132.476095830299</v>
       </c>
       <c r="B47" t="n">
-        <v>-231.2832457761675</v>
+        <v>-175.9283914467997</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-126.7821971849268</v>
+        <v>-126.4746080388748</v>
       </c>
       <c r="B48" t="n">
-        <v>-230.356342088038</v>
+        <v>-175.0021209464862</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-120.8255494131272</v>
+        <v>-120.5203602521178</v>
       </c>
       <c r="B49" t="n">
-        <v>-229.4415923032315</v>
+        <v>-174.0879869555517</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-114.9149368719397</v>
+        <v>-114.6120707672621</v>
       </c>
       <c r="B50" t="n">
-        <v>-228.5386436582006</v>
+        <v>-173.1856343312393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-109.0491128895598</v>
+        <v>-108.7485174500411</v>
       </c>
       <c r="B51" t="n">
-        <v>-227.6471529836602</v>
+        <v>-172.2947240050344</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-103.2269167423613</v>
+        <v>-102.9285381014836</v>
       </c>
       <c r="B52" t="n">
-        <v>-226.7667968275393</v>
+        <v>-171.4149326139543</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-97.44723950861209</v>
+        <v>-97.15103243857003</v>
       </c>
       <c r="B53" t="n">
-        <v>-225.8972658188783</v>
+        <v>-170.5459523875961</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-91.70904170945651</v>
+        <v>-91.41493795001206</v>
       </c>
       <c r="B54" t="n">
-        <v>-225.0382669369517</v>
+        <v>-169.687487141126</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-86.01130057196066</v>
+        <v>-85.71924461466787</v>
       </c>
       <c r="B55" t="n">
-        <v>-224.189515258116</v>
+        <v>-168.8392541622018</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-80.35306751984844</v>
+        <v>-80.06302131716689</v>
       </c>
       <c r="B56" t="n">
-        <v>-223.3507422460927</v>
+        <v>-168.0009877740348</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-74.73340619992439</v>
+        <v>-74.44532826229575</v>
       </c>
       <c r="B57" t="n">
-        <v>-222.5216862226038</v>
+        <v>-167.1724260250201</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-69.15145404364844</v>
+        <v>-68.86529319863831</v>
       </c>
       <c r="B58" t="n">
-        <v>-221.7021012075903</v>
+        <v>-166.3533217486706</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-63.60637432547384</v>
+        <v>-63.32207657964816</v>
       </c>
       <c r="B59" t="n">
-        <v>-220.8917495466047</v>
+        <v>-165.5434371238178</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-58.09733292239832</v>
+        <v>-57.81488158056131</v>
       </c>
       <c r="B60" t="n">
-        <v>-220.0903983312852</v>
+        <v>-164.742544897325</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-52.62359451021487</v>
+        <v>-52.34292288548582</v>
       </c>
       <c r="B61" t="n">
-        <v>-219.29783317305</v>
+        <v>-163.950423620056</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-47.18438254801946</v>
+        <v>-46.90548113289618</v>
       </c>
       <c r="B62" t="n">
-        <v>-218.5138376335764</v>
+        <v>-163.1668653297819</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-41.77899839835215</v>
+        <v>-41.50180865135385</v>
       </c>
       <c r="B63" t="n">
-        <v>-217.73821031228</v>
+        <v>-162.3916617427987</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-36.40676111660774</v>
+        <v>-36.13125345924396</v>
       </c>
       <c r="B64" t="n">
-        <v>-216.9707559168017</v>
+        <v>-161.6246219187927</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-31.06698669470967</v>
+        <v>-30.79314335356146</v>
       </c>
       <c r="B65" t="n">
-        <v>-216.2112821709707</v>
+        <v>-160.8655554213803</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-25.7590532393993</v>
+        <v>-25.48681615652993</v>
       </c>
       <c r="B66" t="n">
-        <v>-215.4596089467009</v>
+        <v>-160.1142765682818</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-20.48232444904593</v>
+        <v>-20.21168672129805</v>
       </c>
       <c r="B67" t="n">
-        <v>-214.7155572236782</v>
+        <v>-159.3706137423378</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-15.23623492836749</v>
+        <v>-14.9671625132644</v>
       </c>
       <c r="B68" t="n">
-        <v>-213.9789610073747</v>
+        <v>-158.6343972557033</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-10.02018658381651</v>
+        <v>-9.752652764410955</v>
       </c>
       <c r="B69" t="n">
-        <v>-213.2496525882364</v>
+        <v>-157.905460575208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-4.833629399481316</v>
+        <v>-4.567593694415546</v>
       </c>
       <c r="B70" t="n">
-        <v>-212.5274737898793</v>
+        <v>-157.1836437488164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.3239673422480734</v>
+        <v>0.5885211568830215</v>
       </c>
       <c r="B71" t="n">
-        <v>-211.8122717789794</v>
+        <v>-156.4687974554579</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>5.453124991940237</v>
+        <v>5.716255553058147</v>
       </c>
       <c r="B72" t="n">
-        <v>-211.1038975770778</v>
+        <v>-155.7607669834242</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>10.55436945092332</v>
+        <v>10.81606524510127</v>
       </c>
       <c r="B73" t="n">
-        <v>-210.4022040617397</v>
+        <v>-155.0594150171703</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>15.62816752593621</v>
+        <v>15.8884653132984</v>
       </c>
       <c r="B74" t="n">
-        <v>-209.707054621256</v>
+        <v>-154.3645984040562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>20.67501158793305</v>
+        <v>20.93393877503246</v>
       </c>
       <c r="B75" t="n">
-        <v>-209.0183114067979</v>
+        <v>-153.6761807043822</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>25.69536014494162</v>
+        <v>25.95293507342575</v>
       </c>
       <c r="B76" t="n">
-        <v>-208.3358434092324</v>
+        <v>-152.9940322550611</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>30.68965881062787</v>
+        <v>30.94589641737045</v>
       </c>
       <c r="B77" t="n">
-        <v>-207.65952348315</v>
+        <v>-152.318026469949</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>35.65832693111585</v>
+        <v>35.91326887649836</v>
       </c>
       <c r="B78" t="n">
-        <v>-206.989230064279</v>
+        <v>-151.6480382781426</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>40.60182622426154</v>
+        <v>40.85547018275395</v>
       </c>
       <c r="B79" t="n">
-        <v>-206.3248378474373</v>
+        <v>-150.9839484041704</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45.52053662298073</v>
+        <v>45.77292813793603</v>
       </c>
       <c r="B80" t="n">
-        <v>-205.6662344398471</v>
+        <v>-150.3256381183885</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50.41487576148518</v>
+        <v>50.66601696563969</v>
       </c>
       <c r="B81" t="n">
-        <v>-205.0133042029937</v>
+        <v>-149.6729976913256</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>55.28522664043558</v>
+        <v>55.53514325930038</v>
       </c>
       <c r="B82" t="n">
-        <v>-204.3659379002841</v>
+        <v>-149.0259148194475</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>60.13198097199756</v>
+        <v>60.38069534748958</v>
       </c>
       <c r="B83" t="n">
-        <v>-203.7240268421633</v>
+        <v>-148.3842813557027</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>64.955500164496</v>
+        <v>65.20302906594864</v>
       </c>
       <c r="B84" t="n">
-        <v>-203.0874680072956</v>
+        <v>-147.7479951002799</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>69.75615950434731</v>
+        <v>70.00252706915377</v>
       </c>
       <c r="B85" t="n">
-        <v>-202.4561581339961</v>
+        <v>-147.1169519025805</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>74.53430278233131</v>
+        <v>74.77951438575752</v>
       </c>
       <c r="B86" t="n">
-        <v>-201.8299996517392</v>
+        <v>-146.4910567317925</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>79.29027834536969</v>
+        <v>79.53436495163527</v>
       </c>
       <c r="B87" t="n">
-        <v>-201.2088958744636</v>
+        <v>-145.8702096249938</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>84.02442076726636</v>
+        <v>84.26739462611131</v>
       </c>
       <c r="B88" t="n">
-        <v>-200.5927533589733</v>
+        <v>-145.2543196611004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88.73707307253477</v>
+        <v>88.97894897557978</v>
       </c>
       <c r="B89" t="n">
-        <v>-199.9814789643698</v>
+        <v>-144.6432934346959</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>93.42853489999726</v>
+        <v>93.66933485826675</v>
       </c>
       <c r="B90" t="n">
-        <v>-199.3749865291211</v>
+        <v>-144.0370439181546</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>98.0991515634325</v>
+        <v>98.33887768614532</v>
       </c>
       <c r="B91" t="n">
-        <v>-198.7731852915437</v>
+        <v>-143.4354829837051</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>102.7492027858676</v>
+        <v>102.9878825745373</v>
       </c>
       <c r="B92" t="n">
-        <v>-198.1759942238757</v>
+        <v>-142.8385263945516</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>107.3790143567604</v>
+        <v>107.6166612464277</v>
       </c>
       <c r="B93" t="n">
-        <v>-197.5833275967166</v>
+        <v>-142.2460902964332</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>111.9888537011079</v>
+        <v>112.2254808915274</v>
       </c>
       <c r="B94" t="n">
-        <v>-196.9951083516287</v>
+        <v>-141.658097718371</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>116.5790454070252</v>
+        <v>116.8146615363652</v>
       </c>
       <c r="B95" t="n">
-        <v>-196.4112532849119</v>
+        <v>-141.074466093032</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>121.1498294427346</v>
+        <v>121.3844660816917</v>
       </c>
       <c r="B96" t="n">
-        <v>-195.8316910868298</v>
+        <v>-140.4951212566782</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>125.7015286259417</v>
+        <v>125.9351849038241</v>
       </c>
       <c r="B97" t="n">
-        <v>-195.2563410138971</v>
+        <v>-139.9199866358739</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>130.2343728867707</v>
+        <v>130.4670619078853</v>
       </c>
       <c r="B98" t="n">
-        <v>-194.6851351391231</v>
+        <v>-139.3489925807364</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>134.7486560430086</v>
+        <v>134.9804030697643</v>
       </c>
       <c r="B99" t="n">
-        <v>-194.1179984839953</v>
+        <v>-138.7820626396157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>139.2446308021117</v>
+        <v>139.4754332968331</v>
       </c>
       <c r="B100" t="n">
-        <v>-193.5548622503376</v>
+        <v>-138.2191315541895</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>143.7225411315425</v>
+        <v>143.9524306781309</v>
       </c>
       <c r="B101" t="n">
-        <v>-192.9956596850961</v>
+        <v>-137.6601283483285</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>148.1826573617968</v>
+        <v>148.4116410915129</v>
       </c>
       <c r="B102" t="n">
-        <v>-192.440321679929</v>
+        <v>-137.1049870218467</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>152.625222907533</v>
+        <v>152.8533048757419</v>
       </c>
       <c r="B103" t="n">
-        <v>-191.8887834044368</v>
+        <v>-136.5536431655156</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>157.0504641574789</v>
+        <v>157.2776591015959</v>
       </c>
       <c r="B104" t="n">
-        <v>-191.3409830156041</v>
+        <v>-136.0060336516002</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>161.4586268570087</v>
+        <v>161.6849560472673</v>
       </c>
       <c r="B105" t="n">
-        <v>-190.7968571249152</v>
+        <v>-135.4620943329059</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>165.8499386144054</v>
+        <v>166.075403683118</v>
       </c>
       <c r="B106" t="n">
-        <v>-190.25634542317</v>
+        <v>-134.9217673655821</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>170.2246328442211</v>
+        <v>170.4492495889094</v>
       </c>
       <c r="B107" t="n">
-        <v>-189.7193876968846</v>
+        <v>-134.3849908308984</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>174.5829321522633</v>
+        <v>174.8067118545003</v>
       </c>
       <c r="B108" t="n">
-        <v>-189.185925852402</v>
+        <v>-133.8517072314558</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>178.9250553357412</v>
+        <v>179.1480065899464</v>
       </c>
       <c r="B109" t="n">
-        <v>-188.6559030280279</v>
+        <v>-133.3218600718986</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>183.2512157165432</v>
+        <v>183.4733584177804</v>
       </c>
       <c r="B110" t="n">
-        <v>-188.1292637746653</v>
+        <v>-132.7953925647968</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>187.5616269436209</v>
+        <v>187.7829670142075</v>
       </c>
       <c r="B111" t="n">
-        <v>-187.605953328175</v>
+        <v>-132.2722516854977</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>191.8565013500114</v>
+        <v>192.0770467502778</v>
       </c>
       <c r="B112" t="n">
-        <v>-187.085917793881</v>
+        <v>-131.75238332408</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>196.1360402639012</v>
+        <v>196.3558001829628</v>
       </c>
       <c r="B113" t="n">
-        <v>-186.569105298611</v>
+        <v>-131.2357354915093</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>200.4004529426303</v>
+        <v>200.6194381181764</v>
       </c>
       <c r="B114" t="n">
-        <v>-186.0554636817906</v>
+        <v>-130.7222558739154</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>204.6499143623267</v>
+        <v>204.8681304067867</v>
       </c>
       <c r="B115" t="n">
-        <v>-185.5449455588747</v>
+        <v>-130.2118977348118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>208.8846419414144</v>
+        <v>209.1021042414887</v>
       </c>
       <c r="B116" t="n">
-        <v>-185.0374990735505</v>
+        <v>-129.7046080767918</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>213.1048078684424</v>
+        <v>213.3215297857625</v>
       </c>
       <c r="B117" t="n">
-        <v>-184.5330784158621</v>
+        <v>-129.2003413677087</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>217.3106150015495</v>
+        <v>217.5265986541984</v>
       </c>
       <c r="B118" t="n">
-        <v>-184.0316347037337</v>
+        <v>-128.6990500981958</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>221.5022377713888</v>
+        <v>221.7174978285805</v>
       </c>
       <c r="B119" t="n">
-        <v>-183.533123036616</v>
+        <v>-128.2006879000081</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>225.679852618443</v>
+        <v>225.8944082047541</v>
       </c>
       <c r="B120" t="n">
-        <v>-183.0374988354462</v>
+        <v>-127.7052096997535</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>229.8436611834628</v>
+        <v>230.057501580712</v>
       </c>
       <c r="B121" t="n">
-        <v>-182.5447150934154</v>
+        <v>-127.2125720548375</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>233.9938232731534</v>
+        <v>234.2069627357162</v>
       </c>
       <c r="B122" t="n">
-        <v>-182.0547303058155</v>
+        <v>-126.7227305263996</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>238.1305070738432</v>
+        <v>238.3429535070838</v>
       </c>
       <c r="B123" t="n">
-        <v>-181.5675024928104</v>
+        <v>-126.235643912715</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>242.2538860666052</v>
+        <v>242.4656592045429</v>
       </c>
       <c r="B124" t="n">
-        <v>-181.0829895633525</v>
+        <v>-125.7512687600951</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>246.3641276523549</v>
+        <v>246.5752274753005</v>
       </c>
       <c r="B125" t="n">
-        <v>-180.6011506445005</v>
+        <v>-125.2695665429207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>250.4613926644174</v>
+        <v>250.6718369521371</v>
       </c>
       <c r="B126" t="n">
-        <v>-180.1219461203357</v>
+        <v>-124.79049558394</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>254.5458508587721</v>
+        <v>254.7556352759844</v>
       </c>
       <c r="B127" t="n">
-        <v>-179.6453358082993</v>
+        <v>-124.3140183097726</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>258.6176600046113</v>
+        <v>258.8267974250736</v>
       </c>
       <c r="B128" t="n">
-        <v>-179.1712813935159</v>
+        <v>-123.8400944180627</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>262.6769743095559</v>
+        <v>262.8854705200417</v>
       </c>
       <c r="B129" t="n">
-        <v>-178.699745426449</v>
+        <v>-123.3686873082341</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>266.7239353361954</v>
+        <v>266.9318073190088</v>
       </c>
       <c r="B130" t="n">
-        <v>-178.2306923613511</v>
+        <v>-122.8997601591166</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>270.7587149455091</v>
+        <v>270.9659552221091</v>
       </c>
       <c r="B131" t="n">
-        <v>-177.7640835710505</v>
+        <v>-122.4332771980655</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>274.7814542730651</v>
+        <v>274.9880840200122</v>
       </c>
       <c r="B132" t="n">
-        <v>-177.2998844113555</v>
+        <v>-121.9692004879498</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>278.7922893914447</v>
+        <v>278.9983120766514</v>
       </c>
       <c r="B133" t="n">
-        <v>-176.8380612226668</v>
+        <v>-121.5074984366612</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>282.7913799877319</v>
+        <v>282.9968009635971</v>
       </c>
       <c r="B134" t="n">
-        <v>-176.378578024848</v>
+        <v>-121.0481348653046</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>286.7788673697694</v>
+        <v>286.9836944448364</v>
       </c>
       <c r="B135" t="n">
-        <v>-175.9214013483007</v>
+        <v>-120.591076041339</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>290.7548753246294</v>
+        <v>290.9591230605871</v>
       </c>
       <c r="B136" t="n">
-        <v>-175.4665001060835</v>
+        <v>-120.1362901256264</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>294.7195687719632</v>
+        <v>294.9232342052225</v>
       </c>
       <c r="B137" t="n">
-        <v>-175.0138388763871</v>
+        <v>-119.6837437194761</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>298.6730587992673</v>
+        <v>298.8761506621237</v>
       </c>
       <c r="B138" t="n">
-        <v>-174.5633887531991</v>
+        <v>-119.2334065968303</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>302.6154863111994</v>
+        <v>302.8180143180623</v>
       </c>
       <c r="B139" t="n">
-        <v>-174.1151177748873</v>
+        <v>-118.7852467038705</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>306.5469898144007</v>
+        <v>306.7489554560355</v>
       </c>
       <c r="B140" t="n">
-        <v>-173.6689946043753</v>
+        <v>-118.3392336552929</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>310.4676896667607</v>
+        <v>310.6691058229687</v>
       </c>
       <c r="B141" t="n">
-        <v>-173.2249903018086</v>
+        <v>-117.8953372363746</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>314.3777201596346</v>
+        <v>314.5785839453862</v>
       </c>
       <c r="B142" t="n">
-        <v>-172.7830746754985</v>
+        <v>-117.4535290562945</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>318.2772028937355</v>
+        <v>318.4775343476232</v>
       </c>
       <c r="B143" t="n">
-        <v>-172.3432192917729</v>
+        <v>-117.0137781084687</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>322.1662608928137</v>
+        <v>322.3660603254131</v>
       </c>
       <c r="B144" t="n">
-        <v>-171.9053958677094</v>
+        <v>-116.5760583534923</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>326.0450240762627</v>
+        <v>326.2442992725518</v>
       </c>
       <c r="B145" t="n">
-        <v>-171.4695756527582</v>
+        <v>-116.1403402136107</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>329.9136034088064</v>
+        <v>330.1123537347818</v>
       </c>
       <c r="B146" t="n">
-        <v>-171.0357323268155</v>
+        <v>-115.7065983280024</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>333.7721265818602</v>
+        <v>333.9703606170653</v>
       </c>
       <c r="B147" t="n">
-        <v>-170.6038379844301</v>
+        <v>-115.2748037716657</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>337.6206981931005</v>
+        <v>337.8184246131083</v>
       </c>
       <c r="B148" t="n">
-        <v>-170.1738675919177</v>
+        <v>-114.8449315162285</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>341.4594403352029</v>
+        <v>341.656660618356</v>
       </c>
       <c r="B149" t="n">
-        <v>-169.7457944360957</v>
+        <v>-114.4169556662649</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>345.2884704479746</v>
+        <v>345.4851977705497</v>
       </c>
       <c r="B150" t="n">
-        <v>-169.3195926004411</v>
+        <v>-113.99084901572</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>349.1078896705382</v>
+        <v>349.3041212463379</v>
       </c>
       <c r="B151" t="n">
-        <v>-168.8952382482923</v>
+        <v>-113.566589517623</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>352.9178092940315</v>
+        <v>353.113560544865</v>
       </c>
       <c r="B152" t="n">
-        <v>-168.4727066706479</v>
+        <v>-113.1441504538091</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>356.7183432412424</v>
+        <v>356.9136169471955</v>
       </c>
       <c r="B153" t="n">
-        <v>-168.0519731236174</v>
+        <v>-112.7235084973669</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>360.5096001396786</v>
+        <v>360.7044004092411</v>
       </c>
       <c r="B154" t="n">
-        <v>-167.6330137016665</v>
+        <v>-112.30463960714</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>364.2916798788474</v>
+        <v>364.4860076173343</v>
       </c>
       <c r="B155" t="n">
-        <v>-167.2158057074137</v>
+        <v>-111.8875214502824</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>368.0646878357308</v>
+        <v>368.2585488846247</v>
       </c>
       <c r="B156" t="n">
-        <v>-166.8003260737987</v>
+        <v>-111.4721304262334</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>371.8287215533352</v>
+        <v>372.0221289081597</v>
       </c>
       <c r="B157" t="n">
-        <v>-166.3865528283681</v>
+        <v>-111.058443788975</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>375.5838843116349</v>
+        <v>375.7768371758431</v>
       </c>
       <c r="B158" t="n">
-        <v>-165.9744635938234</v>
+        <v>-110.6464406893072</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>379.3302847106367</v>
+        <v>379.522784551375</v>
       </c>
       <c r="B159" t="n">
-        <v>-165.5640356351155</v>
+        <v>-110.2360981524816</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>383.0680079034917</v>
+        <v>383.2600643030454</v>
       </c>
       <c r="B160" t="n">
-        <v>-165.1552490039476</v>
+        <v>-109.827395352449</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>386.7971454444943</v>
+        <v>386.9887693046614</v>
       </c>
       <c r="B161" t="n">
-        <v>-164.7480832572587</v>
+        <v>-109.420311715511</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>390.5178071955276</v>
+        <v>390.7089943787278</v>
       </c>
       <c r="B162" t="n">
-        <v>-164.3425161627707</v>
+        <v>-109.0148266611978</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>394.2300865289109</v>
+        <v>394.4208361864951</v>
       </c>
       <c r="B163" t="n">
-        <v>-163.9385274955024</v>
+        <v>-108.6109196124407</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>397.9340635006657</v>
+        <v>398.1243978207976</v>
       </c>
       <c r="B164" t="n">
-        <v>-163.5360986749728</v>
+        <v>-108.2085694951453</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>401.6298371707234</v>
+        <v>401.819746890657</v>
       </c>
       <c r="B165" t="n">
-        <v>-163.1352092471473</v>
+        <v>-107.8077592829742</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>405.3174829503225</v>
+        <v>405.5069827228165</v>
       </c>
       <c r="B166" t="n">
-        <v>-162.7358415132875</v>
+        <v>-107.4084686917511</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408.9971174702775</v>
+        <v>409.1862021390849</v>
       </c>
       <c r="B167" t="n">
-        <v>-162.3379734978749</v>
+        <v>-107.0106779008971</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>412.6688031716923</v>
+        <v>412.8574804630765</v>
       </c>
       <c r="B168" t="n">
-        <v>-161.9415892725998</v>
+        <v>-106.6143695966664</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>416.3326302111098</v>
+        <v>416.5209056268906</v>
       </c>
       <c r="B169" t="n">
-        <v>-161.5466700858125</v>
+        <v>-106.219525277753</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>419.9886867556547</v>
+        <v>420.1765675470912</v>
       </c>
       <c r="B170" t="n">
-        <v>-161.153197577341</v>
+        <v>-105.8261264053345</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>423.6370564106192</v>
+        <v>423.824549720792</v>
       </c>
       <c r="B171" t="n">
-        <v>-160.7611540500574</v>
+        <v>-105.4341553040268</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>427.2778211087427</v>
+        <v>427.4649271858394</v>
       </c>
       <c r="B172" t="n">
-        <v>-160.3705221534752</v>
+        <v>-105.043595372395</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>430.9110679862848</v>
+        <v>431.097780841328</v>
       </c>
       <c r="B173" t="n">
-        <v>-159.9812841435029</v>
+        <v>-104.6544295404329</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>434.5368618918988</v>
+        <v>434.7231961044383</v>
       </c>
       <c r="B174" t="n">
-        <v>-159.593424822459</v>
+        <v>-104.2666404151746</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>438.1552957544953</v>
+        <v>438.3412537707059</v>
       </c>
       <c r="B175" t="n">
-        <v>-159.2069261427201</v>
+        <v>-103.8802112570451</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>441.7664431797688</v>
+        <v>441.9520235115015</v>
       </c>
       <c r="B176" t="n">
-        <v>-158.8217722784815</v>
+        <v>-103.4951266665446</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>445.3703708671885</v>
+        <v>445.5555862646071</v>
       </c>
       <c r="B177" t="n">
-        <v>-158.4379482865903</v>
+        <v>-103.1113701903583</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>448.9671750555713</v>
+        <v>449.1520209381646</v>
       </c>
       <c r="B178" t="n">
-        <v>-158.0554362257182</v>
+        <v>-102.7289257404979</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>452.5569093999481</v>
+        <v>452.74139006016</v>
       </c>
       <c r="B179" t="n">
-        <v>-157.6742228301611</v>
+        <v>-102.3477791130383</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>456.1396512535589</v>
+        <v>456.3237840376682</v>
       </c>
       <c r="B180" t="n">
-        <v>-157.2942924513238</v>
+        <v>-101.967913283617</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>459.7154841073787</v>
+        <v>459.8992629650807</v>
       </c>
       <c r="B181" t="n">
-        <v>-156.9156289315931</v>
+        <v>-101.5893145834768</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>463.2844696378712</v>
+        <v>463.4678986175141</v>
       </c>
       <c r="B182" t="n">
-        <v>-156.5382185603565</v>
+        <v>-101.2119682373758</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>466.8466841796261</v>
+        <v>467.0297663756248</v>
       </c>
       <c r="B183" t="n">
-        <v>-156.1620462068531</v>
+        <v>-100.8358592221684</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>470.4021928011937</v>
+        <v>470.5849256076006</v>
       </c>
       <c r="B184" t="n">
-        <v>-155.7870980607182</v>
+        <v>-100.4609743345162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>473.9510645753182</v>
+        <v>474.133463957395</v>
       </c>
       <c r="B185" t="n">
-        <v>-155.4133600146913</v>
+        <v>-100.0872975166814</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>477.4933658963777</v>
+        <v>477.6754300250027</v>
       </c>
       <c r="B186" t="n">
-        <v>-155.0408183677846</v>
+        <v>-99.71481694935733</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>481.0291687687882</v>
+        <v>481.2108987927978</v>
       </c>
       <c r="B187" t="n">
-        <v>-154.6694589514481</v>
+        <v>-99.34351815544693</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>484.5585350985593</v>
+        <v>484.7399377704998</v>
       </c>
       <c r="B188" t="n">
-        <v>-154.2992687780675</v>
+        <v>-98.97338756510351</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>488.0815305880288</v>
+        <v>488.2626080545202</v>
       </c>
       <c r="B189" t="n">
-        <v>-153.9302345774988</v>
+        <v>-98.60441239767175</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>491.5982190630431</v>
+        <v>491.7789717189567</v>
       </c>
       <c r="B190" t="n">
-        <v>-153.5623433908966</v>
+        <v>-98.23657988277677</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>495.1086644351662</v>
+        <v>495.2890933897431</v>
       </c>
       <c r="B191" t="n">
-        <v>-153.1955823627277</v>
+        <v>-97.86987709485612</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>498.612922511305</v>
+        <v>498.7930366127459</v>
       </c>
       <c r="B192" t="n">
-        <v>-152.8299395930938</v>
+        <v>-97.504291331795</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>502.1110602776631</v>
+        <v>502.290862602835</v>
       </c>
       <c r="B193" t="n">
-        <v>-152.4654021223059</v>
+        <v>-97.13981024270777</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>505.6031383537768</v>
+        <v>505.7826325322091</v>
       </c>
       <c r="B194" t="n">
-        <v>-152.1019577615805</v>
+        <v>-96.77642158668164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>509.089218668341</v>
+        <v>509.2684059522034</v>
       </c>
       <c r="B195" t="n">
-        <v>-151.7395942897773</v>
+        <v>-96.41411339501309</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>512.5693515650913</v>
+        <v>512.7482374621824</v>
       </c>
       <c r="B196" t="n">
-        <v>-151.3783007903919</v>
+        <v>-96.05287431410363</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>516.0436095300552</v>
+        <v>516.2221898802381</v>
       </c>
       <c r="B197" t="n">
-        <v>-151.0180641475802</v>
+        <v>-95.69269223598849</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>519.5120390791237</v>
+        <v>519.6903172868773</v>
       </c>
       <c r="B198" t="n">
-        <v>-150.6588740382118</v>
+        <v>-95.33355605684562</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>522.9746941888277</v>
+        <v>523.1526821800028</v>
       </c>
       <c r="B199" t="n">
-        <v>-150.3007194580811</v>
+        <v>-94.97545389670893</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>526.4316387024681</v>
+        <v>526.6093337769933</v>
       </c>
       <c r="B200" t="n">
-        <v>-149.9435884767612</v>
+        <v>-94.61837534334143</v>
       </c>
     </row>
   </sheetData>
